--- a/docs/CareConnect-ProcedureRequest-1.xlsx
+++ b/docs/CareConnect-ProcedureRequest-1.xlsx
@@ -1628,7 +1628,7 @@
     <t>A code from the SNOMED Clinical Terminology UK with the expression (&lt;&lt;442083009 |anatomical or acquired body structure|).</t>
   </si>
   <si>
-    <t xml:space="preserve">https://fhir.hl7.org.uk/STU3/ValueSet/CareConnect-BodySite-1 </t>
+    <t>https://fhir.hl7.org.uk/STU3/ValueSet/CareConnect-BodySite-1</t>
   </si>
   <si>
     <t>ProcedureRequest.bodySite.coding.id</t>
@@ -1947,7 +1947,7 @@
     <col min="22" max="22" width="17.078125" customWidth="true" bestFit="true"/>
     <col min="23" max="23" width="16.30859375" customWidth="true" bestFit="true"/>
     <col min="24" max="24" width="122.19921875" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="58.0" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="57.5" customWidth="true" bestFit="true"/>
     <col min="26" max="26" width="5.69140625" customWidth="true" bestFit="true"/>
     <col min="27" max="27" width="19.73046875" customWidth="true" bestFit="true"/>
     <col min="28" max="28" width="40.03515625" customWidth="true" bestFit="true"/>

--- a/docs/CareConnect-ProcedureRequest-1.xlsx
+++ b/docs/CareConnect-ProcedureRequest-1.xlsx
@@ -9,13 +9,13 @@
     <sheet name="Elements" r:id="rId3" sheetId="1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="true">Elements!$A$1:$AN$130</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="true">Elements!$A$1:$AN$114</definedName>
   </definedNames>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4670" uniqueCount="565">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4102" uniqueCount="543">
   <si>
     <t>Path</t>
   </si>
@@ -498,7 +498,7 @@
     <t>There are many sets  of identifiers.  To perform matching of two identifiers, we need to know what set we're dealing with. The system identifies a particular set of unique identifiers.</t>
   </si>
   <si>
-    <t>http://www.acme.com/identifiers/patient or urn:ietf:rfc:3986 if the Identifier.value itself is a full uri</t>
+    <t>http://www.acme.com/identifiers/patient</t>
   </si>
   <si>
     <t>Identifier.system</t>
@@ -900,41 +900,10 @@
 </t>
   </si>
   <si>
-    <t>ProcedureRequest.category.coding.extension.id</t>
-  </si>
-  <si>
-    <t>ProcedureRequest.category.coding.extension.extension</t>
-  </si>
-  <si>
-    <t>ProcedureRequest.category.coding.extension.url</t>
-  </si>
-  <si>
-    <t>identifies the meaning of the extension</t>
-  </si>
-  <si>
-    <t>Source of the definition for the extension code - a logical name or a URL.</t>
-  </si>
-  <si>
-    <t>The definition may point directly to a computable or human-readable definition of the extensibility codes, or it may be a logical URI as declared in some other specification. The definition SHALL be a URI for the Structure Definition defining the extension.</t>
-  </si>
-  <si>
-    <t>Extension.url</t>
-  </si>
-  <si>
-    <t>ProcedureRequest.category.coding.extension.value[x]</t>
-  </si>
-  <si>
-    <t>base64Binary
-booleancodedatedateTimedecimalidinstantintegermarkdownoidpositiveIntstringtimeunsignedInturiAddressAgeAnnotationAttachmentCodeableConceptCodingContactPointCountDistanceDurationHumanNameIdentifierMoneyPeriodQuantityRangeRatioReferenceSampledDataSignatureTimingMeta</t>
-  </si>
-  <si>
-    <t>Value of extension</t>
-  </si>
-  <si>
-    <t>Value of extension - may be a resource or one of a constrained set of the data types (see Extensibility in the spec for list).</t>
-  </si>
-  <si>
-    <t>Extension.value[x]</t>
+    <t>The SNOMED CT Description ID for the display</t>
+  </si>
+  <si>
+    <t>The SNOMED CT Description ID for the display.</t>
   </si>
   <si>
     <t>ProcedureRequest.category.coding.system</t>
@@ -1115,18 +1084,6 @@
   </si>
   <si>
     <t>ProcedureRequest.code.coding.extension</t>
-  </si>
-  <si>
-    <t>ProcedureRequest.code.coding.extension.id</t>
-  </si>
-  <si>
-    <t>ProcedureRequest.code.coding.extension.extension</t>
-  </si>
-  <si>
-    <t>ProcedureRequest.code.coding.extension.url</t>
-  </si>
-  <si>
-    <t>ProcedureRequest.code.coding.extension.value[x]</t>
   </si>
   <si>
     <t>ProcedureRequest.code.coding.system</t>
@@ -1488,18 +1445,6 @@
     <t>ProcedureRequest.reasonCode.coding.extension</t>
   </si>
   <si>
-    <t>ProcedureRequest.reasonCode.coding.extension.id</t>
-  </si>
-  <si>
-    <t>ProcedureRequest.reasonCode.coding.extension.extension</t>
-  </si>
-  <si>
-    <t>ProcedureRequest.reasonCode.coding.extension.url</t>
-  </si>
-  <si>
-    <t>ProcedureRequest.reasonCode.coding.extension.value[x]</t>
-  </si>
-  <si>
     <t>ProcedureRequest.reasonCode.coding.system</t>
   </si>
   <si>
@@ -1635,18 +1580,6 @@
   </si>
   <si>
     <t>ProcedureRequest.bodySite.coding.extension</t>
-  </si>
-  <si>
-    <t>ProcedureRequest.bodySite.coding.extension.id</t>
-  </si>
-  <si>
-    <t>ProcedureRequest.bodySite.coding.extension.extension</t>
-  </si>
-  <si>
-    <t>ProcedureRequest.bodySite.coding.extension.url</t>
-  </si>
-  <si>
-    <t>ProcedureRequest.bodySite.coding.extension.value[x]</t>
   </si>
   <si>
     <t>ProcedureRequest.bodySite.coding.system</t>
@@ -1914,7 +1847,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AN130"/>
+  <dimension ref="A1:AN114"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -1923,7 +1856,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="53.86328125" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="47.375" customWidth="true" bestFit="true"/>
     <col min="2" max="2" width="22.59765625" customWidth="true" bestFit="true"/>
     <col min="3" max="3" width="38.81640625" customWidth="true" bestFit="true" hidden="true"/>
     <col min="4" max="4" width="5.8984375" customWidth="true" bestFit="true" hidden="true"/>
@@ -6785,10 +6718,10 @@
         <v>283</v>
       </c>
       <c r="K43" t="s" s="2">
-        <v>280</v>
+        <v>284</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>281</v>
+        <v>285</v>
       </c>
       <c r="M43" s="2"/>
       <c r="N43" s="2"/>
@@ -6871,7 +6804,7 @@
     </row>
     <row r="44" hidden="true">
       <c r="A44" t="s" s="2">
-        <v>284</v>
+        <v>286</v>
       </c>
       <c r="B44" s="2"/>
       <c r="C44" t="s" s="2">
@@ -6879,7 +6812,7 @@
       </c>
       <c r="D44" s="2"/>
       <c r="E44" t="s" s="2">
-        <v>42</v>
+        <v>53</v>
       </c>
       <c r="F44" t="s" s="2">
         <v>53</v>
@@ -6891,25 +6824,29 @@
         <v>44</v>
       </c>
       <c r="I44" t="s" s="2">
-        <v>44</v>
+        <v>54</v>
       </c>
       <c r="J44" t="s" s="2">
-        <v>119</v>
+        <v>66</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>120</v>
+        <v>287</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>121</v>
-      </c>
-      <c r="M44" s="2"/>
-      <c r="N44" s="2"/>
+        <v>288</v>
+      </c>
+      <c r="M44" t="s" s="2">
+        <v>289</v>
+      </c>
+      <c r="N44" t="s" s="2">
+        <v>290</v>
+      </c>
       <c r="O44" t="s" s="2">
         <v>44</v>
       </c>
       <c r="P44" s="2"/>
       <c r="Q44" t="s" s="2">
-        <v>44</v>
+        <v>291</v>
       </c>
       <c r="R44" t="s" s="2">
         <v>44</v>
@@ -6951,7 +6888,7 @@
         <v>44</v>
       </c>
       <c r="AE44" t="s" s="2">
-        <v>122</v>
+        <v>292</v>
       </c>
       <c r="AF44" t="s" s="2">
         <v>42</v>
@@ -6969,10 +6906,10 @@
         <v>44</v>
       </c>
       <c r="AK44" t="s" s="2">
-        <v>44</v>
+        <v>293</v>
       </c>
       <c r="AL44" t="s" s="2">
-        <v>123</v>
+        <v>294</v>
       </c>
       <c r="AM44" t="s" s="2">
         <v>44</v>
@@ -6983,18 +6920,18 @@
     </row>
     <row r="45" hidden="true">
       <c r="A45" t="s" s="2">
-        <v>285</v>
+        <v>295</v>
       </c>
       <c r="B45" s="2"/>
       <c r="C45" t="s" s="2">
-        <v>98</v>
+        <v>44</v>
       </c>
       <c r="D45" s="2"/>
       <c r="E45" t="s" s="2">
         <v>42</v>
       </c>
       <c r="F45" t="s" s="2">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G45" t="s" s="2">
         <v>44</v>
@@ -7003,19 +6940,19 @@
         <v>44</v>
       </c>
       <c r="I45" t="s" s="2">
-        <v>44</v>
+        <v>54</v>
       </c>
       <c r="J45" t="s" s="2">
-        <v>99</v>
+        <v>119</v>
       </c>
       <c r="K45" t="s" s="2">
-        <v>100</v>
+        <v>296</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>125</v>
+        <v>297</v>
       </c>
       <c r="M45" t="s" s="2">
-        <v>102</v>
+        <v>298</v>
       </c>
       <c r="N45" s="2"/>
       <c r="O45" t="s" s="2">
@@ -7053,25 +6990,25 @@
         <v>44</v>
       </c>
       <c r="AA45" t="s" s="2">
-        <v>126</v>
+        <v>44</v>
       </c>
       <c r="AB45" t="s" s="2">
-        <v>127</v>
+        <v>44</v>
       </c>
       <c r="AC45" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AD45" t="s" s="2">
-        <v>128</v>
+        <v>44</v>
       </c>
       <c r="AE45" t="s" s="2">
-        <v>129</v>
+        <v>299</v>
       </c>
       <c r="AF45" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AG45" t="s" s="2">
-        <v>43</v>
+        <v>53</v>
       </c>
       <c r="AH45" t="s" s="2">
         <v>44</v>
@@ -7083,10 +7020,10 @@
         <v>44</v>
       </c>
       <c r="AK45" t="s" s="2">
-        <v>44</v>
+        <v>300</v>
       </c>
       <c r="AL45" t="s" s="2">
-        <v>123</v>
+        <v>301</v>
       </c>
       <c r="AM45" t="s" s="2">
         <v>44</v>
@@ -7097,7 +7034,7 @@
     </row>
     <row r="46" hidden="true">
       <c r="A46" t="s" s="2">
-        <v>286</v>
+        <v>302</v>
       </c>
       <c r="B46" s="2"/>
       <c r="C46" t="s" s="2">
@@ -7117,21 +7054,21 @@
         <v>44</v>
       </c>
       <c r="I46" t="s" s="2">
-        <v>44</v>
+        <v>54</v>
       </c>
       <c r="J46" t="s" s="2">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="K46" t="s" s="2">
-        <v>287</v>
+        <v>303</v>
       </c>
       <c r="L46" t="s" s="2">
-        <v>288</v>
-      </c>
-      <c r="M46" t="s" s="2">
-        <v>289</v>
-      </c>
-      <c r="N46" s="2"/>
+        <v>304</v>
+      </c>
+      <c r="M46" s="2"/>
+      <c r="N46" t="s" s="2">
+        <v>305</v>
+      </c>
       <c r="O46" t="s" s="2">
         <v>44</v>
       </c>
@@ -7179,10 +7116,10 @@
         <v>44</v>
       </c>
       <c r="AE46" t="s" s="2">
-        <v>290</v>
+        <v>306</v>
       </c>
       <c r="AF46" t="s" s="2">
-        <v>53</v>
+        <v>42</v>
       </c>
       <c r="AG46" t="s" s="2">
         <v>53</v>
@@ -7197,10 +7134,10 @@
         <v>44</v>
       </c>
       <c r="AK46" t="s" s="2">
-        <v>44</v>
+        <v>307</v>
       </c>
       <c r="AL46" t="s" s="2">
-        <v>96</v>
+        <v>308</v>
       </c>
       <c r="AM46" t="s" s="2">
         <v>44</v>
@@ -7211,7 +7148,7 @@
     </row>
     <row r="47" hidden="true">
       <c r="A47" t="s" s="2">
-        <v>291</v>
+        <v>309</v>
       </c>
       <c r="B47" s="2"/>
       <c r="C47" t="s" s="2">
@@ -7219,7 +7156,7 @@
       </c>
       <c r="D47" s="2"/>
       <c r="E47" t="s" s="2">
-        <v>42</v>
+        <v>53</v>
       </c>
       <c r="F47" t="s" s="2">
         <v>53</v>
@@ -7231,19 +7168,21 @@
         <v>44</v>
       </c>
       <c r="I47" t="s" s="2">
-        <v>44</v>
+        <v>54</v>
       </c>
       <c r="J47" t="s" s="2">
-        <v>292</v>
+        <v>119</v>
       </c>
       <c r="K47" t="s" s="2">
-        <v>293</v>
+        <v>310</v>
       </c>
       <c r="L47" t="s" s="2">
-        <v>294</v>
+        <v>311</v>
       </c>
       <c r="M47" s="2"/>
-      <c r="N47" s="2"/>
+      <c r="N47" t="s" s="2">
+        <v>312</v>
+      </c>
       <c r="O47" t="s" s="2">
         <v>44</v>
       </c>
@@ -7291,7 +7230,7 @@
         <v>44</v>
       </c>
       <c r="AE47" t="s" s="2">
-        <v>295</v>
+        <v>313</v>
       </c>
       <c r="AF47" t="s" s="2">
         <v>42</v>
@@ -7309,10 +7248,10 @@
         <v>44</v>
       </c>
       <c r="AK47" t="s" s="2">
-        <v>44</v>
+        <v>314</v>
       </c>
       <c r="AL47" t="s" s="2">
-        <v>96</v>
+        <v>315</v>
       </c>
       <c r="AM47" t="s" s="2">
         <v>44</v>
@@ -7323,7 +7262,7 @@
     </row>
     <row r="48" hidden="true">
       <c r="A48" t="s" s="2">
-        <v>296</v>
+        <v>316</v>
       </c>
       <c r="B48" s="2"/>
       <c r="C48" t="s" s="2">
@@ -7331,7 +7270,7 @@
       </c>
       <c r="D48" s="2"/>
       <c r="E48" t="s" s="2">
-        <v>53</v>
+        <v>42</v>
       </c>
       <c r="F48" t="s" s="2">
         <v>53</v>
@@ -7346,26 +7285,26 @@
         <v>54</v>
       </c>
       <c r="J48" t="s" s="2">
-        <v>66</v>
+        <v>249</v>
       </c>
       <c r="K48" t="s" s="2">
-        <v>297</v>
+        <v>317</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>298</v>
+        <v>318</v>
       </c>
       <c r="M48" t="s" s="2">
-        <v>299</v>
+        <v>319</v>
       </c>
       <c r="N48" t="s" s="2">
-        <v>300</v>
+        <v>320</v>
       </c>
       <c r="O48" t="s" s="2">
         <v>44</v>
       </c>
       <c r="P48" s="2"/>
       <c r="Q48" t="s" s="2">
-        <v>301</v>
+        <v>44</v>
       </c>
       <c r="R48" t="s" s="2">
         <v>44</v>
@@ -7407,7 +7346,7 @@
         <v>44</v>
       </c>
       <c r="AE48" t="s" s="2">
-        <v>302</v>
+        <v>321</v>
       </c>
       <c r="AF48" t="s" s="2">
         <v>42</v>
@@ -7425,10 +7364,10 @@
         <v>44</v>
       </c>
       <c r="AK48" t="s" s="2">
-        <v>303</v>
+        <v>322</v>
       </c>
       <c r="AL48" t="s" s="2">
-        <v>304</v>
+        <v>323</v>
       </c>
       <c r="AM48" t="s" s="2">
         <v>44</v>
@@ -7439,7 +7378,7 @@
     </row>
     <row r="49" hidden="true">
       <c r="A49" t="s" s="2">
-        <v>305</v>
+        <v>324</v>
       </c>
       <c r="B49" s="2"/>
       <c r="C49" t="s" s="2">
@@ -7450,7 +7389,7 @@
         <v>42</v>
       </c>
       <c r="F49" t="s" s="2">
-        <v>42</v>
+        <v>53</v>
       </c>
       <c r="G49" t="s" s="2">
         <v>44</v>
@@ -7465,15 +7404,17 @@
         <v>119</v>
       </c>
       <c r="K49" t="s" s="2">
-        <v>306</v>
+        <v>325</v>
       </c>
       <c r="L49" t="s" s="2">
-        <v>307</v>
+        <v>326</v>
       </c>
       <c r="M49" t="s" s="2">
-        <v>308</v>
-      </c>
-      <c r="N49" s="2"/>
+        <v>327</v>
+      </c>
+      <c r="N49" t="s" s="2">
+        <v>328</v>
+      </c>
       <c r="O49" t="s" s="2">
         <v>44</v>
       </c>
@@ -7521,7 +7462,7 @@
         <v>44</v>
       </c>
       <c r="AE49" t="s" s="2">
-        <v>309</v>
+        <v>329</v>
       </c>
       <c r="AF49" t="s" s="2">
         <v>42</v>
@@ -7539,10 +7480,10 @@
         <v>44</v>
       </c>
       <c r="AK49" t="s" s="2">
-        <v>310</v>
+        <v>330</v>
       </c>
       <c r="AL49" t="s" s="2">
-        <v>311</v>
+        <v>331</v>
       </c>
       <c r="AM49" t="s" s="2">
         <v>44</v>
@@ -7553,7 +7494,7 @@
     </row>
     <row r="50" hidden="true">
       <c r="A50" t="s" s="2">
-        <v>312</v>
+        <v>332</v>
       </c>
       <c r="B50" s="2"/>
       <c r="C50" t="s" s="2">
@@ -7576,18 +7517,18 @@
         <v>54</v>
       </c>
       <c r="J50" t="s" s="2">
-        <v>72</v>
+        <v>141</v>
       </c>
       <c r="K50" t="s" s="2">
-        <v>313</v>
+        <v>333</v>
       </c>
       <c r="L50" t="s" s="2">
-        <v>314</v>
-      </c>
-      <c r="M50" s="2"/>
-      <c r="N50" t="s" s="2">
-        <v>315</v>
-      </c>
+        <v>334</v>
+      </c>
+      <c r="M50" t="s" s="2">
+        <v>335</v>
+      </c>
+      <c r="N50" s="2"/>
       <c r="O50" t="s" s="2">
         <v>44</v>
       </c>
@@ -7611,10 +7552,10 @@
         <v>44</v>
       </c>
       <c r="W50" t="s" s="2">
-        <v>44</v>
+        <v>261</v>
       </c>
       <c r="X50" t="s" s="2">
-        <v>44</v>
+        <v>336</v>
       </c>
       <c r="Y50" t="s" s="2">
         <v>44</v>
@@ -7635,10 +7576,10 @@
         <v>44</v>
       </c>
       <c r="AE50" t="s" s="2">
-        <v>316</v>
+        <v>332</v>
       </c>
       <c r="AF50" t="s" s="2">
-        <v>42</v>
+        <v>53</v>
       </c>
       <c r="AG50" t="s" s="2">
         <v>53</v>
@@ -7650,24 +7591,24 @@
         <v>44</v>
       </c>
       <c r="AJ50" t="s" s="2">
-        <v>44</v>
+        <v>337</v>
       </c>
       <c r="AK50" t="s" s="2">
-        <v>317</v>
+        <v>187</v>
       </c>
       <c r="AL50" t="s" s="2">
-        <v>318</v>
+        <v>338</v>
       </c>
       <c r="AM50" t="s" s="2">
-        <v>44</v>
+        <v>339</v>
       </c>
       <c r="AN50" t="s" s="2">
-        <v>44</v>
+        <v>340</v>
       </c>
     </row>
     <row r="51" hidden="true">
       <c r="A51" t="s" s="2">
-        <v>319</v>
+        <v>341</v>
       </c>
       <c r="B51" s="2"/>
       <c r="C51" t="s" s="2">
@@ -7675,7 +7616,7 @@
       </c>
       <c r="D51" s="2"/>
       <c r="E51" t="s" s="2">
-        <v>53</v>
+        <v>42</v>
       </c>
       <c r="F51" t="s" s="2">
         <v>53</v>
@@ -7687,21 +7628,19 @@
         <v>44</v>
       </c>
       <c r="I51" t="s" s="2">
-        <v>54</v>
+        <v>44</v>
       </c>
       <c r="J51" t="s" s="2">
         <v>119</v>
       </c>
       <c r="K51" t="s" s="2">
-        <v>320</v>
+        <v>120</v>
       </c>
       <c r="L51" t="s" s="2">
-        <v>321</v>
+        <v>121</v>
       </c>
       <c r="M51" s="2"/>
-      <c r="N51" t="s" s="2">
-        <v>322</v>
-      </c>
+      <c r="N51" s="2"/>
       <c r="O51" t="s" s="2">
         <v>44</v>
       </c>
@@ -7749,7 +7688,7 @@
         <v>44</v>
       </c>
       <c r="AE51" t="s" s="2">
-        <v>323</v>
+        <v>122</v>
       </c>
       <c r="AF51" t="s" s="2">
         <v>42</v>
@@ -7767,10 +7706,10 @@
         <v>44</v>
       </c>
       <c r="AK51" t="s" s="2">
-        <v>324</v>
+        <v>44</v>
       </c>
       <c r="AL51" t="s" s="2">
-        <v>325</v>
+        <v>123</v>
       </c>
       <c r="AM51" t="s" s="2">
         <v>44</v>
@@ -7781,18 +7720,18 @@
     </row>
     <row r="52" hidden="true">
       <c r="A52" t="s" s="2">
-        <v>326</v>
+        <v>342</v>
       </c>
       <c r="B52" s="2"/>
       <c r="C52" t="s" s="2">
-        <v>44</v>
+        <v>98</v>
       </c>
       <c r="D52" s="2"/>
       <c r="E52" t="s" s="2">
         <v>42</v>
       </c>
       <c r="F52" t="s" s="2">
-        <v>53</v>
+        <v>43</v>
       </c>
       <c r="G52" t="s" s="2">
         <v>44</v>
@@ -7801,23 +7740,21 @@
         <v>44</v>
       </c>
       <c r="I52" t="s" s="2">
-        <v>54</v>
+        <v>44</v>
       </c>
       <c r="J52" t="s" s="2">
-        <v>249</v>
+        <v>99</v>
       </c>
       <c r="K52" t="s" s="2">
-        <v>327</v>
+        <v>100</v>
       </c>
       <c r="L52" t="s" s="2">
-        <v>328</v>
+        <v>125</v>
       </c>
       <c r="M52" t="s" s="2">
-        <v>329</v>
-      </c>
-      <c r="N52" t="s" s="2">
-        <v>330</v>
-      </c>
+        <v>102</v>
+      </c>
+      <c r="N52" s="2"/>
       <c r="O52" t="s" s="2">
         <v>44</v>
       </c>
@@ -7853,25 +7790,25 @@
         <v>44</v>
       </c>
       <c r="AA52" t="s" s="2">
-        <v>44</v>
+        <v>126</v>
       </c>
       <c r="AB52" t="s" s="2">
-        <v>44</v>
+        <v>127</v>
       </c>
       <c r="AC52" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AD52" t="s" s="2">
-        <v>44</v>
+        <v>128</v>
       </c>
       <c r="AE52" t="s" s="2">
-        <v>331</v>
+        <v>129</v>
       </c>
       <c r="AF52" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AG52" t="s" s="2">
-        <v>53</v>
+        <v>43</v>
       </c>
       <c r="AH52" t="s" s="2">
         <v>44</v>
@@ -7883,10 +7820,10 @@
         <v>44</v>
       </c>
       <c r="AK52" t="s" s="2">
-        <v>332</v>
+        <v>44</v>
       </c>
       <c r="AL52" t="s" s="2">
-        <v>333</v>
+        <v>123</v>
       </c>
       <c r="AM52" t="s" s="2">
         <v>44</v>
@@ -7897,7 +7834,7 @@
     </row>
     <row r="53" hidden="true">
       <c r="A53" t="s" s="2">
-        <v>334</v>
+        <v>343</v>
       </c>
       <c r="B53" s="2"/>
       <c r="C53" t="s" s="2">
@@ -7908,7 +7845,7 @@
         <v>42</v>
       </c>
       <c r="F53" t="s" s="2">
-        <v>53</v>
+        <v>43</v>
       </c>
       <c r="G53" t="s" s="2">
         <v>44</v>
@@ -7920,19 +7857,19 @@
         <v>54</v>
       </c>
       <c r="J53" t="s" s="2">
-        <v>119</v>
+        <v>268</v>
       </c>
       <c r="K53" t="s" s="2">
-        <v>335</v>
+        <v>269</v>
       </c>
       <c r="L53" t="s" s="2">
-        <v>336</v>
+        <v>270</v>
       </c>
       <c r="M53" t="s" s="2">
-        <v>337</v>
+        <v>271</v>
       </c>
       <c r="N53" t="s" s="2">
-        <v>338</v>
+        <v>272</v>
       </c>
       <c r="O53" t="s" s="2">
         <v>44</v>
@@ -7969,25 +7906,23 @@
         <v>44</v>
       </c>
       <c r="AA53" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AB53" t="s" s="2">
-        <v>44</v>
-      </c>
+        <v>273</v>
+      </c>
+      <c r="AB53" s="2"/>
       <c r="AC53" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AD53" t="s" s="2">
-        <v>44</v>
+        <v>128</v>
       </c>
       <c r="AE53" t="s" s="2">
-        <v>339</v>
+        <v>274</v>
       </c>
       <c r="AF53" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AG53" t="s" s="2">
-        <v>53</v>
+        <v>43</v>
       </c>
       <c r="AH53" t="s" s="2">
         <v>44</v>
@@ -7999,10 +7934,10 @@
         <v>44</v>
       </c>
       <c r="AK53" t="s" s="2">
-        <v>340</v>
+        <v>275</v>
       </c>
       <c r="AL53" t="s" s="2">
-        <v>341</v>
+        <v>276</v>
       </c>
       <c r="AM53" t="s" s="2">
         <v>44</v>
@@ -8013,18 +7948,20 @@
     </row>
     <row r="54" hidden="true">
       <c r="A54" t="s" s="2">
-        <v>342</v>
-      </c>
-      <c r="B54" s="2"/>
+        <v>343</v>
+      </c>
+      <c r="B54" t="s" s="2">
+        <v>277</v>
+      </c>
       <c r="C54" t="s" s="2">
         <v>44</v>
       </c>
       <c r="D54" s="2"/>
       <c r="E54" t="s" s="2">
-        <v>53</v>
+        <v>42</v>
       </c>
       <c r="F54" t="s" s="2">
-        <v>53</v>
+        <v>43</v>
       </c>
       <c r="G54" t="s" s="2">
         <v>44</v>
@@ -8036,18 +7973,20 @@
         <v>54</v>
       </c>
       <c r="J54" t="s" s="2">
-        <v>141</v>
+        <v>268</v>
       </c>
       <c r="K54" t="s" s="2">
-        <v>343</v>
+        <v>269</v>
       </c>
       <c r="L54" t="s" s="2">
-        <v>344</v>
+        <v>270</v>
       </c>
       <c r="M54" t="s" s="2">
-        <v>345</v>
-      </c>
-      <c r="N54" s="2"/>
+        <v>271</v>
+      </c>
+      <c r="N54" t="s" s="2">
+        <v>272</v>
+      </c>
       <c r="O54" t="s" s="2">
         <v>44</v>
       </c>
@@ -8071,10 +8010,10 @@
         <v>44</v>
       </c>
       <c r="W54" t="s" s="2">
-        <v>261</v>
+        <v>44</v>
       </c>
       <c r="X54" t="s" s="2">
-        <v>346</v>
+        <v>44</v>
       </c>
       <c r="Y54" t="s" s="2">
         <v>44</v>
@@ -8095,13 +8034,13 @@
         <v>44</v>
       </c>
       <c r="AE54" t="s" s="2">
-        <v>342</v>
+        <v>274</v>
       </c>
       <c r="AF54" t="s" s="2">
-        <v>53</v>
+        <v>42</v>
       </c>
       <c r="AG54" t="s" s="2">
-        <v>53</v>
+        <v>43</v>
       </c>
       <c r="AH54" t="s" s="2">
         <v>44</v>
@@ -8110,24 +8049,24 @@
         <v>44</v>
       </c>
       <c r="AJ54" t="s" s="2">
-        <v>347</v>
+        <v>44</v>
       </c>
       <c r="AK54" t="s" s="2">
-        <v>187</v>
+        <v>275</v>
       </c>
       <c r="AL54" t="s" s="2">
-        <v>348</v>
+        <v>276</v>
       </c>
       <c r="AM54" t="s" s="2">
-        <v>349</v>
+        <v>44</v>
       </c>
       <c r="AN54" t="s" s="2">
-        <v>350</v>
+        <v>44</v>
       </c>
     </row>
     <row r="55" hidden="true">
       <c r="A55" t="s" s="2">
-        <v>351</v>
+        <v>344</v>
       </c>
       <c r="B55" s="2"/>
       <c r="C55" t="s" s="2">
@@ -8239,11 +8178,11 @@
     </row>
     <row r="56" hidden="true">
       <c r="A56" t="s" s="2">
-        <v>352</v>
+        <v>345</v>
       </c>
       <c r="B56" s="2"/>
       <c r="C56" t="s" s="2">
-        <v>98</v>
+        <v>44</v>
       </c>
       <c r="D56" s="2"/>
       <c r="E56" t="s" s="2">
@@ -8265,14 +8204,12 @@
         <v>99</v>
       </c>
       <c r="K56" t="s" s="2">
-        <v>100</v>
+        <v>280</v>
       </c>
       <c r="L56" t="s" s="2">
-        <v>125</v>
-      </c>
-      <c r="M56" t="s" s="2">
-        <v>102</v>
-      </c>
+        <v>281</v>
+      </c>
+      <c r="M56" s="2"/>
       <c r="N56" s="2"/>
       <c r="O56" t="s" s="2">
         <v>44</v>
@@ -8342,7 +8279,7 @@
         <v>44</v>
       </c>
       <c r="AL56" t="s" s="2">
-        <v>123</v>
+        <v>44</v>
       </c>
       <c r="AM56" t="s" s="2">
         <v>44</v>
@@ -8353,9 +8290,11 @@
     </row>
     <row r="57" hidden="true">
       <c r="A57" t="s" s="2">
-        <v>353</v>
-      </c>
-      <c r="B57" s="2"/>
+        <v>345</v>
+      </c>
+      <c r="B57" t="s" s="2">
+        <v>282</v>
+      </c>
       <c r="C57" t="s" s="2">
         <v>44</v>
       </c>
@@ -8373,23 +8312,19 @@
         <v>44</v>
       </c>
       <c r="I57" t="s" s="2">
-        <v>54</v>
+        <v>44</v>
       </c>
       <c r="J57" t="s" s="2">
-        <v>268</v>
+        <v>283</v>
       </c>
       <c r="K57" t="s" s="2">
-        <v>269</v>
+        <v>284</v>
       </c>
       <c r="L57" t="s" s="2">
-        <v>270</v>
-      </c>
-      <c r="M57" t="s" s="2">
-        <v>271</v>
-      </c>
-      <c r="N57" t="s" s="2">
-        <v>272</v>
-      </c>
+        <v>285</v>
+      </c>
+      <c r="M57" s="2"/>
+      <c r="N57" s="2"/>
       <c r="O57" t="s" s="2">
         <v>44</v>
       </c>
@@ -8425,17 +8360,19 @@
         <v>44</v>
       </c>
       <c r="AA57" t="s" s="2">
-        <v>273</v>
-      </c>
-      <c r="AB57" s="2"/>
+        <v>44</v>
+      </c>
+      <c r="AB57" t="s" s="2">
+        <v>44</v>
+      </c>
       <c r="AC57" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AD57" t="s" s="2">
-        <v>128</v>
+        <v>44</v>
       </c>
       <c r="AE57" t="s" s="2">
-        <v>274</v>
+        <v>129</v>
       </c>
       <c r="AF57" t="s" s="2">
         <v>42</v>
@@ -8453,10 +8390,10 @@
         <v>44</v>
       </c>
       <c r="AK57" t="s" s="2">
-        <v>275</v>
+        <v>44</v>
       </c>
       <c r="AL57" t="s" s="2">
-        <v>276</v>
+        <v>44</v>
       </c>
       <c r="AM57" t="s" s="2">
         <v>44</v>
@@ -8467,20 +8404,18 @@
     </row>
     <row r="58" hidden="true">
       <c r="A58" t="s" s="2">
-        <v>353</v>
-      </c>
-      <c r="B58" t="s" s="2">
-        <v>277</v>
-      </c>
+        <v>346</v>
+      </c>
+      <c r="B58" s="2"/>
       <c r="C58" t="s" s="2">
         <v>44</v>
       </c>
       <c r="D58" s="2"/>
       <c r="E58" t="s" s="2">
-        <v>42</v>
+        <v>53</v>
       </c>
       <c r="F58" t="s" s="2">
-        <v>43</v>
+        <v>53</v>
       </c>
       <c r="G58" t="s" s="2">
         <v>44</v>
@@ -8492,26 +8427,26 @@
         <v>54</v>
       </c>
       <c r="J58" t="s" s="2">
-        <v>268</v>
+        <v>66</v>
       </c>
       <c r="K58" t="s" s="2">
-        <v>269</v>
+        <v>287</v>
       </c>
       <c r="L58" t="s" s="2">
-        <v>270</v>
+        <v>288</v>
       </c>
       <c r="M58" t="s" s="2">
-        <v>271</v>
+        <v>289</v>
       </c>
       <c r="N58" t="s" s="2">
-        <v>272</v>
+        <v>290</v>
       </c>
       <c r="O58" t="s" s="2">
         <v>44</v>
       </c>
       <c r="P58" s="2"/>
       <c r="Q58" t="s" s="2">
-        <v>44</v>
+        <v>291</v>
       </c>
       <c r="R58" t="s" s="2">
         <v>44</v>
@@ -8553,13 +8488,13 @@
         <v>44</v>
       </c>
       <c r="AE58" t="s" s="2">
-        <v>274</v>
+        <v>292</v>
       </c>
       <c r="AF58" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AG58" t="s" s="2">
-        <v>43</v>
+        <v>53</v>
       </c>
       <c r="AH58" t="s" s="2">
         <v>44</v>
@@ -8571,10 +8506,10 @@
         <v>44</v>
       </c>
       <c r="AK58" t="s" s="2">
-        <v>275</v>
+        <v>293</v>
       </c>
       <c r="AL58" t="s" s="2">
-        <v>276</v>
+        <v>294</v>
       </c>
       <c r="AM58" t="s" s="2">
         <v>44</v>
@@ -8585,7 +8520,7 @@
     </row>
     <row r="59" hidden="true">
       <c r="A59" t="s" s="2">
-        <v>354</v>
+        <v>347</v>
       </c>
       <c r="B59" s="2"/>
       <c r="C59" t="s" s="2">
@@ -8596,7 +8531,7 @@
         <v>42</v>
       </c>
       <c r="F59" t="s" s="2">
-        <v>53</v>
+        <v>42</v>
       </c>
       <c r="G59" t="s" s="2">
         <v>44</v>
@@ -8605,18 +8540,20 @@
         <v>44</v>
       </c>
       <c r="I59" t="s" s="2">
-        <v>44</v>
+        <v>54</v>
       </c>
       <c r="J59" t="s" s="2">
         <v>119</v>
       </c>
       <c r="K59" t="s" s="2">
-        <v>120</v>
+        <v>296</v>
       </c>
       <c r="L59" t="s" s="2">
-        <v>121</v>
-      </c>
-      <c r="M59" s="2"/>
+        <v>297</v>
+      </c>
+      <c r="M59" t="s" s="2">
+        <v>298</v>
+      </c>
       <c r="N59" s="2"/>
       <c r="O59" t="s" s="2">
         <v>44</v>
@@ -8665,7 +8602,7 @@
         <v>44</v>
       </c>
       <c r="AE59" t="s" s="2">
-        <v>122</v>
+        <v>299</v>
       </c>
       <c r="AF59" t="s" s="2">
         <v>42</v>
@@ -8683,10 +8620,10 @@
         <v>44</v>
       </c>
       <c r="AK59" t="s" s="2">
-        <v>44</v>
+        <v>300</v>
       </c>
       <c r="AL59" t="s" s="2">
-        <v>123</v>
+        <v>301</v>
       </c>
       <c r="AM59" t="s" s="2">
         <v>44</v>
@@ -8697,7 +8634,7 @@
     </row>
     <row r="60" hidden="true">
       <c r="A60" t="s" s="2">
-        <v>355</v>
+        <v>348</v>
       </c>
       <c r="B60" s="2"/>
       <c r="C60" t="s" s="2">
@@ -8705,10 +8642,10 @@
       </c>
       <c r="D60" s="2"/>
       <c r="E60" t="s" s="2">
-        <v>42</v>
+        <v>53</v>
       </c>
       <c r="F60" t="s" s="2">
-        <v>43</v>
+        <v>53</v>
       </c>
       <c r="G60" t="s" s="2">
         <v>44</v>
@@ -8717,19 +8654,21 @@
         <v>44</v>
       </c>
       <c r="I60" t="s" s="2">
-        <v>44</v>
+        <v>54</v>
       </c>
       <c r="J60" t="s" s="2">
-        <v>99</v>
+        <v>72</v>
       </c>
       <c r="K60" t="s" s="2">
-        <v>280</v>
+        <v>303</v>
       </c>
       <c r="L60" t="s" s="2">
-        <v>281</v>
+        <v>304</v>
       </c>
       <c r="M60" s="2"/>
-      <c r="N60" s="2"/>
+      <c r="N60" t="s" s="2">
+        <v>305</v>
+      </c>
       <c r="O60" t="s" s="2">
         <v>44</v>
       </c>
@@ -8765,25 +8704,25 @@
         <v>44</v>
       </c>
       <c r="AA60" t="s" s="2">
-        <v>126</v>
+        <v>44</v>
       </c>
       <c r="AB60" t="s" s="2">
-        <v>127</v>
+        <v>44</v>
       </c>
       <c r="AC60" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AD60" t="s" s="2">
-        <v>128</v>
+        <v>44</v>
       </c>
       <c r="AE60" t="s" s="2">
-        <v>129</v>
+        <v>306</v>
       </c>
       <c r="AF60" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AG60" t="s" s="2">
-        <v>43</v>
+        <v>53</v>
       </c>
       <c r="AH60" t="s" s="2">
         <v>44</v>
@@ -8795,10 +8734,10 @@
         <v>44</v>
       </c>
       <c r="AK60" t="s" s="2">
-        <v>44</v>
+        <v>307</v>
       </c>
       <c r="AL60" t="s" s="2">
-        <v>44</v>
+        <v>308</v>
       </c>
       <c r="AM60" t="s" s="2">
         <v>44</v>
@@ -8809,20 +8748,18 @@
     </row>
     <row r="61" hidden="true">
       <c r="A61" t="s" s="2">
-        <v>355</v>
-      </c>
-      <c r="B61" t="s" s="2">
-        <v>282</v>
-      </c>
+        <v>349</v>
+      </c>
+      <c r="B61" s="2"/>
       <c r="C61" t="s" s="2">
         <v>44</v>
       </c>
       <c r="D61" s="2"/>
       <c r="E61" t="s" s="2">
-        <v>42</v>
+        <v>53</v>
       </c>
       <c r="F61" t="s" s="2">
-        <v>43</v>
+        <v>53</v>
       </c>
       <c r="G61" t="s" s="2">
         <v>44</v>
@@ -8831,19 +8768,21 @@
         <v>44</v>
       </c>
       <c r="I61" t="s" s="2">
-        <v>44</v>
+        <v>54</v>
       </c>
       <c r="J61" t="s" s="2">
-        <v>283</v>
+        <v>119</v>
       </c>
       <c r="K61" t="s" s="2">
-        <v>280</v>
+        <v>310</v>
       </c>
       <c r="L61" t="s" s="2">
-        <v>281</v>
+        <v>311</v>
       </c>
       <c r="M61" s="2"/>
-      <c r="N61" s="2"/>
+      <c r="N61" t="s" s="2">
+        <v>312</v>
+      </c>
       <c r="O61" t="s" s="2">
         <v>44</v>
       </c>
@@ -8891,13 +8830,13 @@
         <v>44</v>
       </c>
       <c r="AE61" t="s" s="2">
-        <v>129</v>
+        <v>313</v>
       </c>
       <c r="AF61" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AG61" t="s" s="2">
-        <v>43</v>
+        <v>53</v>
       </c>
       <c r="AH61" t="s" s="2">
         <v>44</v>
@@ -8909,10 +8848,10 @@
         <v>44</v>
       </c>
       <c r="AK61" t="s" s="2">
-        <v>44</v>
+        <v>314</v>
       </c>
       <c r="AL61" t="s" s="2">
-        <v>44</v>
+        <v>315</v>
       </c>
       <c r="AM61" t="s" s="2">
         <v>44</v>
@@ -8923,7 +8862,7 @@
     </row>
     <row r="62" hidden="true">
       <c r="A62" t="s" s="2">
-        <v>356</v>
+        <v>350</v>
       </c>
       <c r="B62" s="2"/>
       <c r="C62" t="s" s="2">
@@ -8943,19 +8882,23 @@
         <v>44</v>
       </c>
       <c r="I62" t="s" s="2">
-        <v>44</v>
+        <v>54</v>
       </c>
       <c r="J62" t="s" s="2">
-        <v>119</v>
+        <v>249</v>
       </c>
       <c r="K62" t="s" s="2">
-        <v>120</v>
+        <v>317</v>
       </c>
       <c r="L62" t="s" s="2">
-        <v>121</v>
-      </c>
-      <c r="M62" s="2"/>
-      <c r="N62" s="2"/>
+        <v>318</v>
+      </c>
+      <c r="M62" t="s" s="2">
+        <v>319</v>
+      </c>
+      <c r="N62" t="s" s="2">
+        <v>320</v>
+      </c>
       <c r="O62" t="s" s="2">
         <v>44</v>
       </c>
@@ -9003,7 +8946,7 @@
         <v>44</v>
       </c>
       <c r="AE62" t="s" s="2">
-        <v>122</v>
+        <v>321</v>
       </c>
       <c r="AF62" t="s" s="2">
         <v>42</v>
@@ -9021,10 +8964,10 @@
         <v>44</v>
       </c>
       <c r="AK62" t="s" s="2">
-        <v>44</v>
+        <v>322</v>
       </c>
       <c r="AL62" t="s" s="2">
-        <v>123</v>
+        <v>323</v>
       </c>
       <c r="AM62" t="s" s="2">
         <v>44</v>
@@ -9035,18 +8978,18 @@
     </row>
     <row r="63" hidden="true">
       <c r="A63" t="s" s="2">
-        <v>357</v>
+        <v>351</v>
       </c>
       <c r="B63" s="2"/>
       <c r="C63" t="s" s="2">
-        <v>98</v>
+        <v>44</v>
       </c>
       <c r="D63" s="2"/>
       <c r="E63" t="s" s="2">
         <v>42</v>
       </c>
       <c r="F63" t="s" s="2">
-        <v>43</v>
+        <v>53</v>
       </c>
       <c r="G63" t="s" s="2">
         <v>44</v>
@@ -9055,21 +8998,23 @@
         <v>44</v>
       </c>
       <c r="I63" t="s" s="2">
-        <v>44</v>
+        <v>54</v>
       </c>
       <c r="J63" t="s" s="2">
-        <v>99</v>
+        <v>119</v>
       </c>
       <c r="K63" t="s" s="2">
-        <v>100</v>
+        <v>325</v>
       </c>
       <c r="L63" t="s" s="2">
-        <v>125</v>
+        <v>326</v>
       </c>
       <c r="M63" t="s" s="2">
-        <v>102</v>
-      </c>
-      <c r="N63" s="2"/>
+        <v>327</v>
+      </c>
+      <c r="N63" t="s" s="2">
+        <v>328</v>
+      </c>
       <c r="O63" t="s" s="2">
         <v>44</v>
       </c>
@@ -9105,25 +9050,25 @@
         <v>44</v>
       </c>
       <c r="AA63" t="s" s="2">
-        <v>126</v>
+        <v>44</v>
       </c>
       <c r="AB63" t="s" s="2">
-        <v>127</v>
+        <v>44</v>
       </c>
       <c r="AC63" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AD63" t="s" s="2">
-        <v>128</v>
+        <v>44</v>
       </c>
       <c r="AE63" t="s" s="2">
-        <v>129</v>
+        <v>329</v>
       </c>
       <c r="AF63" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AG63" t="s" s="2">
-        <v>43</v>
+        <v>53</v>
       </c>
       <c r="AH63" t="s" s="2">
         <v>44</v>
@@ -9135,10 +9080,10 @@
         <v>44</v>
       </c>
       <c r="AK63" t="s" s="2">
-        <v>44</v>
+        <v>330</v>
       </c>
       <c r="AL63" t="s" s="2">
-        <v>123</v>
+        <v>331</v>
       </c>
       <c r="AM63" t="s" s="2">
         <v>44</v>
@@ -9149,7 +9094,7 @@
     </row>
     <row r="64" hidden="true">
       <c r="A64" t="s" s="2">
-        <v>358</v>
+        <v>352</v>
       </c>
       <c r="B64" s="2"/>
       <c r="C64" t="s" s="2">
@@ -9169,20 +9114,18 @@
         <v>44</v>
       </c>
       <c r="I64" t="s" s="2">
-        <v>44</v>
+        <v>54</v>
       </c>
       <c r="J64" t="s" s="2">
-        <v>66</v>
+        <v>353</v>
       </c>
       <c r="K64" t="s" s="2">
-        <v>287</v>
+        <v>354</v>
       </c>
       <c r="L64" t="s" s="2">
-        <v>288</v>
-      </c>
-      <c r="M64" t="s" s="2">
-        <v>289</v>
-      </c>
+        <v>355</v>
+      </c>
+      <c r="M64" s="2"/>
       <c r="N64" s="2"/>
       <c r="O64" t="s" s="2">
         <v>44</v>
@@ -9231,7 +9174,7 @@
         <v>44</v>
       </c>
       <c r="AE64" t="s" s="2">
-        <v>290</v>
+        <v>352</v>
       </c>
       <c r="AF64" t="s" s="2">
         <v>53</v>
@@ -9246,28 +9189,28 @@
         <v>44</v>
       </c>
       <c r="AJ64" t="s" s="2">
-        <v>44</v>
+        <v>356</v>
       </c>
       <c r="AK64" t="s" s="2">
-        <v>44</v>
+        <v>357</v>
       </c>
       <c r="AL64" t="s" s="2">
-        <v>96</v>
+        <v>358</v>
       </c>
       <c r="AM64" t="s" s="2">
-        <v>44</v>
+        <v>359</v>
       </c>
       <c r="AN64" t="s" s="2">
-        <v>44</v>
+        <v>360</v>
       </c>
     </row>
     <row r="65" hidden="true">
       <c r="A65" t="s" s="2">
-        <v>359</v>
+        <v>361</v>
       </c>
       <c r="B65" s="2"/>
       <c r="C65" t="s" s="2">
-        <v>44</v>
+        <v>362</v>
       </c>
       <c r="D65" s="2"/>
       <c r="E65" t="s" s="2">
@@ -9283,16 +9226,16 @@
         <v>44</v>
       </c>
       <c r="I65" t="s" s="2">
-        <v>44</v>
+        <v>54</v>
       </c>
       <c r="J65" t="s" s="2">
-        <v>292</v>
+        <v>363</v>
       </c>
       <c r="K65" t="s" s="2">
-        <v>293</v>
+        <v>364</v>
       </c>
       <c r="L65" t="s" s="2">
-        <v>294</v>
+        <v>365</v>
       </c>
       <c r="M65" s="2"/>
       <c r="N65" s="2"/>
@@ -9343,7 +9286,7 @@
         <v>44</v>
       </c>
       <c r="AE65" t="s" s="2">
-        <v>295</v>
+        <v>361</v>
       </c>
       <c r="AF65" t="s" s="2">
         <v>42</v>
@@ -9358,32 +9301,32 @@
         <v>44</v>
       </c>
       <c r="AJ65" t="s" s="2">
-        <v>44</v>
+        <v>366</v>
       </c>
       <c r="AK65" t="s" s="2">
-        <v>44</v>
+        <v>367</v>
       </c>
       <c r="AL65" t="s" s="2">
-        <v>96</v>
+        <v>368</v>
       </c>
       <c r="AM65" t="s" s="2">
-        <v>44</v>
+        <v>369</v>
       </c>
       <c r="AN65" t="s" s="2">
-        <v>44</v>
+        <v>370</v>
       </c>
     </row>
     <row r="66" hidden="true">
       <c r="A66" t="s" s="2">
-        <v>360</v>
+        <v>371</v>
       </c>
       <c r="B66" s="2"/>
       <c r="C66" t="s" s="2">
-        <v>44</v>
+        <v>372</v>
       </c>
       <c r="D66" s="2"/>
       <c r="E66" t="s" s="2">
-        <v>53</v>
+        <v>42</v>
       </c>
       <c r="F66" t="s" s="2">
         <v>53</v>
@@ -9398,26 +9341,22 @@
         <v>54</v>
       </c>
       <c r="J66" t="s" s="2">
-        <v>66</v>
+        <v>373</v>
       </c>
       <c r="K66" t="s" s="2">
-        <v>297</v>
+        <v>374</v>
       </c>
       <c r="L66" t="s" s="2">
-        <v>298</v>
-      </c>
-      <c r="M66" t="s" s="2">
-        <v>299</v>
-      </c>
-      <c r="N66" t="s" s="2">
-        <v>300</v>
-      </c>
+        <v>375</v>
+      </c>
+      <c r="M66" s="2"/>
+      <c r="N66" s="2"/>
       <c r="O66" t="s" s="2">
         <v>44</v>
       </c>
       <c r="P66" s="2"/>
       <c r="Q66" t="s" s="2">
-        <v>301</v>
+        <v>44</v>
       </c>
       <c r="R66" t="s" s="2">
         <v>44</v>
@@ -9459,7 +9398,7 @@
         <v>44</v>
       </c>
       <c r="AE66" t="s" s="2">
-        <v>302</v>
+        <v>371</v>
       </c>
       <c r="AF66" t="s" s="2">
         <v>42</v>
@@ -9474,24 +9413,24 @@
         <v>44</v>
       </c>
       <c r="AJ66" t="s" s="2">
-        <v>44</v>
+        <v>376</v>
       </c>
       <c r="AK66" t="s" s="2">
-        <v>303</v>
+        <v>377</v>
       </c>
       <c r="AL66" t="s" s="2">
-        <v>304</v>
+        <v>378</v>
       </c>
       <c r="AM66" t="s" s="2">
-        <v>44</v>
+        <v>379</v>
       </c>
       <c r="AN66" t="s" s="2">
-        <v>44</v>
+        <v>380</v>
       </c>
     </row>
     <row r="67" hidden="true">
       <c r="A67" t="s" s="2">
-        <v>361</v>
+        <v>381</v>
       </c>
       <c r="B67" s="2"/>
       <c r="C67" t="s" s="2">
@@ -9502,7 +9441,7 @@
         <v>42</v>
       </c>
       <c r="F67" t="s" s="2">
-        <v>42</v>
+        <v>53</v>
       </c>
       <c r="G67" t="s" s="2">
         <v>44</v>
@@ -9514,17 +9453,15 @@
         <v>54</v>
       </c>
       <c r="J67" t="s" s="2">
-        <v>119</v>
+        <v>382</v>
       </c>
       <c r="K67" t="s" s="2">
-        <v>306</v>
+        <v>383</v>
       </c>
       <c r="L67" t="s" s="2">
-        <v>307</v>
-      </c>
-      <c r="M67" t="s" s="2">
-        <v>308</v>
-      </c>
+        <v>384</v>
+      </c>
+      <c r="M67" s="2"/>
       <c r="N67" s="2"/>
       <c r="O67" t="s" s="2">
         <v>44</v>
@@ -9549,13 +9486,13 @@
         <v>44</v>
       </c>
       <c r="W67" t="s" s="2">
-        <v>44</v>
+        <v>261</v>
       </c>
       <c r="X67" t="s" s="2">
-        <v>44</v>
+        <v>385</v>
       </c>
       <c r="Y67" t="s" s="2">
-        <v>44</v>
+        <v>386</v>
       </c>
       <c r="Z67" t="s" s="2">
         <v>44</v>
@@ -9573,7 +9510,7 @@
         <v>44</v>
       </c>
       <c r="AE67" t="s" s="2">
-        <v>309</v>
+        <v>381</v>
       </c>
       <c r="AF67" t="s" s="2">
         <v>42</v>
@@ -9591,29 +9528,29 @@
         <v>44</v>
       </c>
       <c r="AK67" t="s" s="2">
-        <v>310</v>
+        <v>44</v>
       </c>
       <c r="AL67" t="s" s="2">
-        <v>311</v>
+        <v>387</v>
       </c>
       <c r="AM67" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AN67" t="s" s="2">
-        <v>44</v>
+        <v>388</v>
       </c>
     </row>
     <row r="68" hidden="true">
       <c r="A68" t="s" s="2">
-        <v>362</v>
+        <v>389</v>
       </c>
       <c r="B68" s="2"/>
       <c r="C68" t="s" s="2">
-        <v>44</v>
+        <v>390</v>
       </c>
       <c r="D68" s="2"/>
       <c r="E68" t="s" s="2">
-        <v>53</v>
+        <v>42</v>
       </c>
       <c r="F68" t="s" s="2">
         <v>53</v>
@@ -9628,18 +9565,16 @@
         <v>54</v>
       </c>
       <c r="J68" t="s" s="2">
-        <v>72</v>
+        <v>391</v>
       </c>
       <c r="K68" t="s" s="2">
-        <v>313</v>
+        <v>392</v>
       </c>
       <c r="L68" t="s" s="2">
-        <v>314</v>
+        <v>393</v>
       </c>
       <c r="M68" s="2"/>
-      <c r="N68" t="s" s="2">
-        <v>315</v>
-      </c>
+      <c r="N68" s="2"/>
       <c r="O68" t="s" s="2">
         <v>44</v>
       </c>
@@ -9687,7 +9622,7 @@
         <v>44</v>
       </c>
       <c r="AE68" t="s" s="2">
-        <v>316</v>
+        <v>389</v>
       </c>
       <c r="AF68" t="s" s="2">
         <v>42</v>
@@ -9702,32 +9637,32 @@
         <v>44</v>
       </c>
       <c r="AJ68" t="s" s="2">
-        <v>44</v>
+        <v>394</v>
       </c>
       <c r="AK68" t="s" s="2">
-        <v>317</v>
+        <v>395</v>
       </c>
       <c r="AL68" t="s" s="2">
-        <v>318</v>
+        <v>396</v>
       </c>
       <c r="AM68" t="s" s="2">
-        <v>44</v>
+        <v>397</v>
       </c>
       <c r="AN68" t="s" s="2">
-        <v>44</v>
+        <v>398</v>
       </c>
     </row>
     <row r="69" hidden="true">
       <c r="A69" t="s" s="2">
-        <v>363</v>
+        <v>399</v>
       </c>
       <c r="B69" s="2"/>
       <c r="C69" t="s" s="2">
-        <v>44</v>
+        <v>400</v>
       </c>
       <c r="D69" s="2"/>
       <c r="E69" t="s" s="2">
-        <v>53</v>
+        <v>42</v>
       </c>
       <c r="F69" t="s" s="2">
         <v>53</v>
@@ -9742,18 +9677,18 @@
         <v>54</v>
       </c>
       <c r="J69" t="s" s="2">
-        <v>119</v>
+        <v>401</v>
       </c>
       <c r="K69" t="s" s="2">
-        <v>320</v>
+        <v>402</v>
       </c>
       <c r="L69" t="s" s="2">
-        <v>321</v>
-      </c>
-      <c r="M69" s="2"/>
-      <c r="N69" t="s" s="2">
-        <v>322</v>
-      </c>
+        <v>403</v>
+      </c>
+      <c r="M69" t="s" s="2">
+        <v>404</v>
+      </c>
+      <c r="N69" s="2"/>
       <c r="O69" t="s" s="2">
         <v>44</v>
       </c>
@@ -9801,7 +9736,7 @@
         <v>44</v>
       </c>
       <c r="AE69" t="s" s="2">
-        <v>323</v>
+        <v>399</v>
       </c>
       <c r="AF69" t="s" s="2">
         <v>42</v>
@@ -9813,27 +9748,27 @@
         <v>44</v>
       </c>
       <c r="AI69" t="s" s="2">
-        <v>44</v>
+        <v>405</v>
       </c>
       <c r="AJ69" t="s" s="2">
-        <v>44</v>
+        <v>406</v>
       </c>
       <c r="AK69" t="s" s="2">
-        <v>324</v>
+        <v>407</v>
       </c>
       <c r="AL69" t="s" s="2">
-        <v>325</v>
+        <v>408</v>
       </c>
       <c r="AM69" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AN69" t="s" s="2">
-        <v>44</v>
+        <v>409</v>
       </c>
     </row>
     <row r="70" hidden="true">
       <c r="A70" t="s" s="2">
-        <v>364</v>
+        <v>410</v>
       </c>
       <c r="B70" s="2"/>
       <c r="C70" t="s" s="2">
@@ -9853,23 +9788,19 @@
         <v>44</v>
       </c>
       <c r="I70" t="s" s="2">
-        <v>54</v>
+        <v>44</v>
       </c>
       <c r="J70" t="s" s="2">
-        <v>249</v>
+        <v>119</v>
       </c>
       <c r="K70" t="s" s="2">
-        <v>327</v>
+        <v>120</v>
       </c>
       <c r="L70" t="s" s="2">
-        <v>328</v>
-      </c>
-      <c r="M70" t="s" s="2">
-        <v>329</v>
-      </c>
-      <c r="N70" t="s" s="2">
-        <v>330</v>
-      </c>
+        <v>121</v>
+      </c>
+      <c r="M70" s="2"/>
+      <c r="N70" s="2"/>
       <c r="O70" t="s" s="2">
         <v>44</v>
       </c>
@@ -9917,7 +9848,7 @@
         <v>44</v>
       </c>
       <c r="AE70" t="s" s="2">
-        <v>331</v>
+        <v>122</v>
       </c>
       <c r="AF70" t="s" s="2">
         <v>42</v>
@@ -9935,10 +9866,10 @@
         <v>44</v>
       </c>
       <c r="AK70" t="s" s="2">
-        <v>332</v>
+        <v>44</v>
       </c>
       <c r="AL70" t="s" s="2">
-        <v>333</v>
+        <v>123</v>
       </c>
       <c r="AM70" t="s" s="2">
         <v>44</v>
@@ -9949,18 +9880,18 @@
     </row>
     <row r="71" hidden="true">
       <c r="A71" t="s" s="2">
-        <v>365</v>
+        <v>411</v>
       </c>
       <c r="B71" s="2"/>
       <c r="C71" t="s" s="2">
-        <v>44</v>
+        <v>98</v>
       </c>
       <c r="D71" s="2"/>
       <c r="E71" t="s" s="2">
         <v>42</v>
       </c>
       <c r="F71" t="s" s="2">
-        <v>53</v>
+        <v>43</v>
       </c>
       <c r="G71" t="s" s="2">
         <v>44</v>
@@ -9969,23 +9900,21 @@
         <v>44</v>
       </c>
       <c r="I71" t="s" s="2">
-        <v>54</v>
+        <v>44</v>
       </c>
       <c r="J71" t="s" s="2">
-        <v>119</v>
+        <v>99</v>
       </c>
       <c r="K71" t="s" s="2">
-        <v>335</v>
+        <v>100</v>
       </c>
       <c r="L71" t="s" s="2">
-        <v>336</v>
+        <v>125</v>
       </c>
       <c r="M71" t="s" s="2">
-        <v>337</v>
-      </c>
-      <c r="N71" t="s" s="2">
-        <v>338</v>
-      </c>
+        <v>102</v>
+      </c>
+      <c r="N71" s="2"/>
       <c r="O71" t="s" s="2">
         <v>44</v>
       </c>
@@ -10033,13 +9962,13 @@
         <v>44</v>
       </c>
       <c r="AE71" t="s" s="2">
-        <v>339</v>
+        <v>129</v>
       </c>
       <c r="AF71" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AG71" t="s" s="2">
-        <v>53</v>
+        <v>43</v>
       </c>
       <c r="AH71" t="s" s="2">
         <v>44</v>
@@ -10051,10 +9980,10 @@
         <v>44</v>
       </c>
       <c r="AK71" t="s" s="2">
-        <v>340</v>
+        <v>44</v>
       </c>
       <c r="AL71" t="s" s="2">
-        <v>341</v>
+        <v>123</v>
       </c>
       <c r="AM71" t="s" s="2">
         <v>44</v>
@@ -10065,38 +9994,40 @@
     </row>
     <row r="72" hidden="true">
       <c r="A72" t="s" s="2">
-        <v>366</v>
+        <v>412</v>
       </c>
       <c r="B72" s="2"/>
       <c r="C72" t="s" s="2">
-        <v>44</v>
+        <v>413</v>
       </c>
       <c r="D72" s="2"/>
       <c r="E72" t="s" s="2">
-        <v>53</v>
+        <v>42</v>
       </c>
       <c r="F72" t="s" s="2">
-        <v>53</v>
+        <v>43</v>
       </c>
       <c r="G72" t="s" s="2">
         <v>44</v>
       </c>
       <c r="H72" t="s" s="2">
-        <v>44</v>
+        <v>54</v>
       </c>
       <c r="I72" t="s" s="2">
         <v>54</v>
       </c>
       <c r="J72" t="s" s="2">
-        <v>367</v>
+        <v>99</v>
       </c>
       <c r="K72" t="s" s="2">
-        <v>368</v>
+        <v>105</v>
       </c>
       <c r="L72" t="s" s="2">
-        <v>369</v>
-      </c>
-      <c r="M72" s="2"/>
+        <v>414</v>
+      </c>
+      <c r="M72" t="s" s="2">
+        <v>102</v>
+      </c>
       <c r="N72" s="2"/>
       <c r="O72" t="s" s="2">
         <v>44</v>
@@ -10145,13 +10076,13 @@
         <v>44</v>
       </c>
       <c r="AE72" t="s" s="2">
-        <v>366</v>
+        <v>415</v>
       </c>
       <c r="AF72" t="s" s="2">
-        <v>53</v>
+        <v>42</v>
       </c>
       <c r="AG72" t="s" s="2">
-        <v>53</v>
+        <v>43</v>
       </c>
       <c r="AH72" t="s" s="2">
         <v>44</v>
@@ -10160,32 +10091,32 @@
         <v>44</v>
       </c>
       <c r="AJ72" t="s" s="2">
-        <v>370</v>
+        <v>44</v>
       </c>
       <c r="AK72" t="s" s="2">
-        <v>371</v>
+        <v>44</v>
       </c>
       <c r="AL72" t="s" s="2">
-        <v>372</v>
+        <v>96</v>
       </c>
       <c r="AM72" t="s" s="2">
-        <v>373</v>
+        <v>44</v>
       </c>
       <c r="AN72" t="s" s="2">
-        <v>374</v>
+        <v>44</v>
       </c>
     </row>
     <row r="73" hidden="true">
       <c r="A73" t="s" s="2">
-        <v>375</v>
+        <v>416</v>
       </c>
       <c r="B73" s="2"/>
       <c r="C73" t="s" s="2">
-        <v>376</v>
+        <v>44</v>
       </c>
       <c r="D73" s="2"/>
       <c r="E73" t="s" s="2">
-        <v>42</v>
+        <v>53</v>
       </c>
       <c r="F73" t="s" s="2">
         <v>53</v>
@@ -10200,13 +10131,13 @@
         <v>54</v>
       </c>
       <c r="J73" t="s" s="2">
-        <v>377</v>
+        <v>417</v>
       </c>
       <c r="K73" t="s" s="2">
-        <v>378</v>
+        <v>418</v>
       </c>
       <c r="L73" t="s" s="2">
-        <v>379</v>
+        <v>419</v>
       </c>
       <c r="M73" s="2"/>
       <c r="N73" s="2"/>
@@ -10257,10 +10188,10 @@
         <v>44</v>
       </c>
       <c r="AE73" t="s" s="2">
-        <v>375</v>
+        <v>416</v>
       </c>
       <c r="AF73" t="s" s="2">
-        <v>42</v>
+        <v>53</v>
       </c>
       <c r="AG73" t="s" s="2">
         <v>53</v>
@@ -10272,28 +10203,28 @@
         <v>44</v>
       </c>
       <c r="AJ73" t="s" s="2">
-        <v>380</v>
+        <v>420</v>
       </c>
       <c r="AK73" t="s" s="2">
-        <v>381</v>
+        <v>407</v>
       </c>
       <c r="AL73" t="s" s="2">
-        <v>382</v>
+        <v>421</v>
       </c>
       <c r="AM73" t="s" s="2">
-        <v>383</v>
+        <v>422</v>
       </c>
       <c r="AN73" t="s" s="2">
-        <v>384</v>
+        <v>409</v>
       </c>
     </row>
     <row r="74" hidden="true">
       <c r="A74" t="s" s="2">
-        <v>385</v>
+        <v>423</v>
       </c>
       <c r="B74" s="2"/>
       <c r="C74" t="s" s="2">
-        <v>386</v>
+        <v>44</v>
       </c>
       <c r="D74" s="2"/>
       <c r="E74" t="s" s="2">
@@ -10312,16 +10243,18 @@
         <v>54</v>
       </c>
       <c r="J74" t="s" s="2">
-        <v>387</v>
+        <v>174</v>
       </c>
       <c r="K74" t="s" s="2">
-        <v>388</v>
+        <v>424</v>
       </c>
       <c r="L74" t="s" s="2">
-        <v>389</v>
+        <v>425</v>
       </c>
       <c r="M74" s="2"/>
-      <c r="N74" s="2"/>
+      <c r="N74" t="s" s="2">
+        <v>426</v>
+      </c>
       <c r="O74" t="s" s="2">
         <v>44</v>
       </c>
@@ -10369,7 +10302,7 @@
         <v>44</v>
       </c>
       <c r="AE74" t="s" s="2">
-        <v>385</v>
+        <v>423</v>
       </c>
       <c r="AF74" t="s" s="2">
         <v>42</v>
@@ -10384,24 +10317,24 @@
         <v>44</v>
       </c>
       <c r="AJ74" t="s" s="2">
-        <v>390</v>
+        <v>427</v>
       </c>
       <c r="AK74" t="s" s="2">
-        <v>391</v>
+        <v>96</v>
       </c>
       <c r="AL74" t="s" s="2">
-        <v>392</v>
+        <v>428</v>
       </c>
       <c r="AM74" t="s" s="2">
-        <v>393</v>
+        <v>44</v>
       </c>
       <c r="AN74" t="s" s="2">
-        <v>394</v>
+        <v>44</v>
       </c>
     </row>
     <row r="75" hidden="true">
       <c r="A75" t="s" s="2">
-        <v>395</v>
+        <v>429</v>
       </c>
       <c r="B75" s="2"/>
       <c r="C75" t="s" s="2">
@@ -10424,15 +10357,17 @@
         <v>54</v>
       </c>
       <c r="J75" t="s" s="2">
-        <v>396</v>
+        <v>141</v>
       </c>
       <c r="K75" t="s" s="2">
-        <v>397</v>
+        <v>430</v>
       </c>
       <c r="L75" t="s" s="2">
-        <v>398</v>
-      </c>
-      <c r="M75" s="2"/>
+        <v>431</v>
+      </c>
+      <c r="M75" t="s" s="2">
+        <v>432</v>
+      </c>
       <c r="N75" s="2"/>
       <c r="O75" t="s" s="2">
         <v>44</v>
@@ -10460,10 +10395,10 @@
         <v>261</v>
       </c>
       <c r="X75" t="s" s="2">
-        <v>399</v>
+        <v>433</v>
       </c>
       <c r="Y75" t="s" s="2">
-        <v>400</v>
+        <v>434</v>
       </c>
       <c r="Z75" t="s" s="2">
         <v>44</v>
@@ -10481,7 +10416,7 @@
         <v>44</v>
       </c>
       <c r="AE75" t="s" s="2">
-        <v>395</v>
+        <v>429</v>
       </c>
       <c r="AF75" t="s" s="2">
         <v>42</v>
@@ -10496,32 +10431,32 @@
         <v>44</v>
       </c>
       <c r="AJ75" t="s" s="2">
-        <v>44</v>
+        <v>435</v>
       </c>
       <c r="AK75" t="s" s="2">
-        <v>44</v>
+        <v>436</v>
       </c>
       <c r="AL75" t="s" s="2">
-        <v>401</v>
+        <v>437</v>
       </c>
       <c r="AM75" t="s" s="2">
-        <v>44</v>
+        <v>438</v>
       </c>
       <c r="AN75" t="s" s="2">
-        <v>402</v>
+        <v>44</v>
       </c>
     </row>
     <row r="76" hidden="true">
       <c r="A76" t="s" s="2">
-        <v>403</v>
+        <v>439</v>
       </c>
       <c r="B76" s="2"/>
       <c r="C76" t="s" s="2">
-        <v>404</v>
+        <v>44</v>
       </c>
       <c r="D76" s="2"/>
       <c r="E76" t="s" s="2">
-        <v>42</v>
+        <v>53</v>
       </c>
       <c r="F76" t="s" s="2">
         <v>53</v>
@@ -10536,15 +10471,17 @@
         <v>54</v>
       </c>
       <c r="J76" t="s" s="2">
-        <v>405</v>
+        <v>440</v>
       </c>
       <c r="K76" t="s" s="2">
-        <v>406</v>
+        <v>441</v>
       </c>
       <c r="L76" t="s" s="2">
-        <v>407</v>
-      </c>
-      <c r="M76" s="2"/>
+        <v>442</v>
+      </c>
+      <c r="M76" t="s" s="2">
+        <v>443</v>
+      </c>
       <c r="N76" s="2"/>
       <c r="O76" t="s" s="2">
         <v>44</v>
@@ -10593,7 +10530,7 @@
         <v>44</v>
       </c>
       <c r="AE76" t="s" s="2">
-        <v>403</v>
+        <v>439</v>
       </c>
       <c r="AF76" t="s" s="2">
         <v>42</v>
@@ -10608,35 +10545,35 @@
         <v>44</v>
       </c>
       <c r="AJ76" t="s" s="2">
-        <v>408</v>
+        <v>444</v>
       </c>
       <c r="AK76" t="s" s="2">
-        <v>409</v>
+        <v>436</v>
       </c>
       <c r="AL76" t="s" s="2">
-        <v>410</v>
+        <v>445</v>
       </c>
       <c r="AM76" t="s" s="2">
-        <v>411</v>
+        <v>438</v>
       </c>
       <c r="AN76" t="s" s="2">
-        <v>412</v>
+        <v>44</v>
       </c>
     </row>
     <row r="77" hidden="true">
       <c r="A77" t="s" s="2">
-        <v>413</v>
+        <v>446</v>
       </c>
       <c r="B77" s="2"/>
       <c r="C77" t="s" s="2">
-        <v>414</v>
+        <v>44</v>
       </c>
       <c r="D77" s="2"/>
       <c r="E77" t="s" s="2">
         <v>42</v>
       </c>
       <c r="F77" t="s" s="2">
-        <v>53</v>
+        <v>43</v>
       </c>
       <c r="G77" t="s" s="2">
         <v>44</v>
@@ -10648,16 +10585,16 @@
         <v>54</v>
       </c>
       <c r="J77" t="s" s="2">
-        <v>415</v>
+        <v>141</v>
       </c>
       <c r="K77" t="s" s="2">
-        <v>416</v>
+        <v>447</v>
       </c>
       <c r="L77" t="s" s="2">
-        <v>417</v>
+        <v>448</v>
       </c>
       <c r="M77" t="s" s="2">
-        <v>418</v>
+        <v>449</v>
       </c>
       <c r="N77" s="2"/>
       <c r="O77" t="s" s="2">
@@ -10683,13 +10620,13 @@
         <v>44</v>
       </c>
       <c r="W77" t="s" s="2">
-        <v>44</v>
+        <v>261</v>
       </c>
       <c r="X77" t="s" s="2">
-        <v>44</v>
+        <v>450</v>
       </c>
       <c r="Y77" t="s" s="2">
-        <v>44</v>
+        <v>451</v>
       </c>
       <c r="Z77" t="s" s="2">
         <v>44</v>
@@ -10707,39 +10644,39 @@
         <v>44</v>
       </c>
       <c r="AE77" t="s" s="2">
-        <v>413</v>
+        <v>446</v>
       </c>
       <c r="AF77" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AG77" t="s" s="2">
-        <v>53</v>
+        <v>43</v>
       </c>
       <c r="AH77" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AI77" t="s" s="2">
-        <v>419</v>
+        <v>44</v>
       </c>
       <c r="AJ77" t="s" s="2">
-        <v>420</v>
+        <v>452</v>
       </c>
       <c r="AK77" t="s" s="2">
-        <v>421</v>
+        <v>453</v>
       </c>
       <c r="AL77" t="s" s="2">
-        <v>422</v>
+        <v>454</v>
       </c>
       <c r="AM77" t="s" s="2">
-        <v>44</v>
+        <v>455</v>
       </c>
       <c r="AN77" t="s" s="2">
-        <v>423</v>
+        <v>44</v>
       </c>
     </row>
     <row r="78" hidden="true">
       <c r="A78" t="s" s="2">
-        <v>424</v>
+        <v>456</v>
       </c>
       <c r="B78" s="2"/>
       <c r="C78" t="s" s="2">
@@ -10851,7 +10788,7 @@
     </row>
     <row r="79" hidden="true">
       <c r="A79" t="s" s="2">
-        <v>425</v>
+        <v>457</v>
       </c>
       <c r="B79" s="2"/>
       <c r="C79" t="s" s="2">
@@ -10921,16 +10858,16 @@
         <v>44</v>
       </c>
       <c r="AA79" t="s" s="2">
-        <v>44</v>
+        <v>126</v>
       </c>
       <c r="AB79" t="s" s="2">
-        <v>44</v>
+        <v>127</v>
       </c>
       <c r="AC79" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AD79" t="s" s="2">
-        <v>44</v>
+        <v>128</v>
       </c>
       <c r="AE79" t="s" s="2">
         <v>129</v>
@@ -10965,11 +10902,11 @@
     </row>
     <row r="80" hidden="true">
       <c r="A80" t="s" s="2">
-        <v>426</v>
+        <v>458</v>
       </c>
       <c r="B80" s="2"/>
       <c r="C80" t="s" s="2">
-        <v>427</v>
+        <v>44</v>
       </c>
       <c r="D80" s="2"/>
       <c r="E80" t="s" s="2">
@@ -10982,24 +10919,26 @@
         <v>44</v>
       </c>
       <c r="H80" t="s" s="2">
-        <v>54</v>
+        <v>44</v>
       </c>
       <c r="I80" t="s" s="2">
         <v>54</v>
       </c>
       <c r="J80" t="s" s="2">
-        <v>99</v>
+        <v>268</v>
       </c>
       <c r="K80" t="s" s="2">
-        <v>105</v>
+        <v>269</v>
       </c>
       <c r="L80" t="s" s="2">
-        <v>428</v>
+        <v>270</v>
       </c>
       <c r="M80" t="s" s="2">
-        <v>102</v>
-      </c>
-      <c r="N80" s="2"/>
+        <v>271</v>
+      </c>
+      <c r="N80" t="s" s="2">
+        <v>272</v>
+      </c>
       <c r="O80" t="s" s="2">
         <v>44</v>
       </c>
@@ -11035,19 +10974,17 @@
         <v>44</v>
       </c>
       <c r="AA80" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AB80" t="s" s="2">
-        <v>44</v>
-      </c>
+        <v>273</v>
+      </c>
+      <c r="AB80" s="2"/>
       <c r="AC80" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AD80" t="s" s="2">
-        <v>44</v>
+        <v>128</v>
       </c>
       <c r="AE80" t="s" s="2">
-        <v>429</v>
+        <v>274</v>
       </c>
       <c r="AF80" t="s" s="2">
         <v>42</v>
@@ -11065,10 +11002,10 @@
         <v>44</v>
       </c>
       <c r="AK80" t="s" s="2">
-        <v>44</v>
+        <v>275</v>
       </c>
       <c r="AL80" t="s" s="2">
-        <v>96</v>
+        <v>276</v>
       </c>
       <c r="AM80" t="s" s="2">
         <v>44</v>
@@ -11079,18 +11016,20 @@
     </row>
     <row r="81" hidden="true">
       <c r="A81" t="s" s="2">
-        <v>430</v>
-      </c>
-      <c r="B81" s="2"/>
+        <v>458</v>
+      </c>
+      <c r="B81" t="s" s="2">
+        <v>277</v>
+      </c>
       <c r="C81" t="s" s="2">
         <v>44</v>
       </c>
       <c r="D81" s="2"/>
       <c r="E81" t="s" s="2">
-        <v>53</v>
+        <v>42</v>
       </c>
       <c r="F81" t="s" s="2">
-        <v>53</v>
+        <v>43</v>
       </c>
       <c r="G81" t="s" s="2">
         <v>44</v>
@@ -11102,16 +11041,20 @@
         <v>54</v>
       </c>
       <c r="J81" t="s" s="2">
-        <v>431</v>
+        <v>268</v>
       </c>
       <c r="K81" t="s" s="2">
-        <v>432</v>
+        <v>269</v>
       </c>
       <c r="L81" t="s" s="2">
-        <v>433</v>
-      </c>
-      <c r="M81" s="2"/>
-      <c r="N81" s="2"/>
+        <v>270</v>
+      </c>
+      <c r="M81" t="s" s="2">
+        <v>271</v>
+      </c>
+      <c r="N81" t="s" s="2">
+        <v>272</v>
+      </c>
       <c r="O81" t="s" s="2">
         <v>44</v>
       </c>
@@ -11159,13 +11102,13 @@
         <v>44</v>
       </c>
       <c r="AE81" t="s" s="2">
-        <v>430</v>
+        <v>274</v>
       </c>
       <c r="AF81" t="s" s="2">
-        <v>53</v>
+        <v>42</v>
       </c>
       <c r="AG81" t="s" s="2">
-        <v>53</v>
+        <v>43</v>
       </c>
       <c r="AH81" t="s" s="2">
         <v>44</v>
@@ -11174,24 +11117,24 @@
         <v>44</v>
       </c>
       <c r="AJ81" t="s" s="2">
-        <v>434</v>
+        <v>44</v>
       </c>
       <c r="AK81" t="s" s="2">
-        <v>421</v>
+        <v>275</v>
       </c>
       <c r="AL81" t="s" s="2">
-        <v>435</v>
+        <v>276</v>
       </c>
       <c r="AM81" t="s" s="2">
-        <v>436</v>
+        <v>44</v>
       </c>
       <c r="AN81" t="s" s="2">
-        <v>423</v>
+        <v>44</v>
       </c>
     </row>
     <row r="82" hidden="true">
       <c r="A82" t="s" s="2">
-        <v>437</v>
+        <v>459</v>
       </c>
       <c r="B82" s="2"/>
       <c r="C82" t="s" s="2">
@@ -11211,21 +11154,19 @@
         <v>44</v>
       </c>
       <c r="I82" t="s" s="2">
-        <v>54</v>
+        <v>44</v>
       </c>
       <c r="J82" t="s" s="2">
-        <v>174</v>
+        <v>119</v>
       </c>
       <c r="K82" t="s" s="2">
-        <v>438</v>
+        <v>120</v>
       </c>
       <c r="L82" t="s" s="2">
-        <v>439</v>
+        <v>121</v>
       </c>
       <c r="M82" s="2"/>
-      <c r="N82" t="s" s="2">
-        <v>440</v>
-      </c>
+      <c r="N82" s="2"/>
       <c r="O82" t="s" s="2">
         <v>44</v>
       </c>
@@ -11273,7 +11214,7 @@
         <v>44</v>
       </c>
       <c r="AE82" t="s" s="2">
-        <v>437</v>
+        <v>122</v>
       </c>
       <c r="AF82" t="s" s="2">
         <v>42</v>
@@ -11288,13 +11229,13 @@
         <v>44</v>
       </c>
       <c r="AJ82" t="s" s="2">
-        <v>441</v>
+        <v>44</v>
       </c>
       <c r="AK82" t="s" s="2">
-        <v>96</v>
+        <v>44</v>
       </c>
       <c r="AL82" t="s" s="2">
-        <v>442</v>
+        <v>123</v>
       </c>
       <c r="AM82" t="s" s="2">
         <v>44</v>
@@ -11305,7 +11246,7 @@
     </row>
     <row r="83" hidden="true">
       <c r="A83" t="s" s="2">
-        <v>443</v>
+        <v>460</v>
       </c>
       <c r="B83" s="2"/>
       <c r="C83" t="s" s="2">
@@ -11316,7 +11257,7 @@
         <v>42</v>
       </c>
       <c r="F83" t="s" s="2">
-        <v>53</v>
+        <v>43</v>
       </c>
       <c r="G83" t="s" s="2">
         <v>44</v>
@@ -11325,20 +11266,18 @@
         <v>44</v>
       </c>
       <c r="I83" t="s" s="2">
-        <v>54</v>
+        <v>44</v>
       </c>
       <c r="J83" t="s" s="2">
-        <v>141</v>
+        <v>99</v>
       </c>
       <c r="K83" t="s" s="2">
-        <v>444</v>
+        <v>280</v>
       </c>
       <c r="L83" t="s" s="2">
-        <v>445</v>
-      </c>
-      <c r="M83" t="s" s="2">
-        <v>446</v>
-      </c>
+        <v>281</v>
+      </c>
+      <c r="M83" s="2"/>
       <c r="N83" s="2"/>
       <c r="O83" t="s" s="2">
         <v>44</v>
@@ -11363,37 +11302,37 @@
         <v>44</v>
       </c>
       <c r="W83" t="s" s="2">
-        <v>261</v>
+        <v>44</v>
       </c>
       <c r="X83" t="s" s="2">
-        <v>447</v>
+        <v>44</v>
       </c>
       <c r="Y83" t="s" s="2">
-        <v>448</v>
+        <v>44</v>
       </c>
       <c r="Z83" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AA83" t="s" s="2">
-        <v>44</v>
+        <v>126</v>
       </c>
       <c r="AB83" t="s" s="2">
-        <v>44</v>
+        <v>127</v>
       </c>
       <c r="AC83" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AD83" t="s" s="2">
-        <v>44</v>
+        <v>128</v>
       </c>
       <c r="AE83" t="s" s="2">
-        <v>443</v>
+        <v>129</v>
       </c>
       <c r="AF83" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AG83" t="s" s="2">
-        <v>53</v>
+        <v>43</v>
       </c>
       <c r="AH83" t="s" s="2">
         <v>44</v>
@@ -11402,16 +11341,16 @@
         <v>44</v>
       </c>
       <c r="AJ83" t="s" s="2">
-        <v>449</v>
+        <v>44</v>
       </c>
       <c r="AK83" t="s" s="2">
-        <v>450</v>
+        <v>44</v>
       </c>
       <c r="AL83" t="s" s="2">
-        <v>451</v>
+        <v>44</v>
       </c>
       <c r="AM83" t="s" s="2">
-        <v>452</v>
+        <v>44</v>
       </c>
       <c r="AN83" t="s" s="2">
         <v>44</v>
@@ -11419,18 +11358,20 @@
     </row>
     <row r="84" hidden="true">
       <c r="A84" t="s" s="2">
-        <v>453</v>
-      </c>
-      <c r="B84" s="2"/>
+        <v>460</v>
+      </c>
+      <c r="B84" t="s" s="2">
+        <v>282</v>
+      </c>
       <c r="C84" t="s" s="2">
         <v>44</v>
       </c>
       <c r="D84" s="2"/>
       <c r="E84" t="s" s="2">
-        <v>53</v>
+        <v>42</v>
       </c>
       <c r="F84" t="s" s="2">
-        <v>53</v>
+        <v>43</v>
       </c>
       <c r="G84" t="s" s="2">
         <v>44</v>
@@ -11439,20 +11380,18 @@
         <v>44</v>
       </c>
       <c r="I84" t="s" s="2">
-        <v>54</v>
+        <v>44</v>
       </c>
       <c r="J84" t="s" s="2">
-        <v>454</v>
+        <v>283</v>
       </c>
       <c r="K84" t="s" s="2">
-        <v>455</v>
+        <v>284</v>
       </c>
       <c r="L84" t="s" s="2">
-        <v>456</v>
-      </c>
-      <c r="M84" t="s" s="2">
-        <v>457</v>
-      </c>
+        <v>285</v>
+      </c>
+      <c r="M84" s="2"/>
       <c r="N84" s="2"/>
       <c r="O84" t="s" s="2">
         <v>44</v>
@@ -11501,13 +11440,13 @@
         <v>44</v>
       </c>
       <c r="AE84" t="s" s="2">
-        <v>453</v>
+        <v>129</v>
       </c>
       <c r="AF84" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AG84" t="s" s="2">
-        <v>53</v>
+        <v>43</v>
       </c>
       <c r="AH84" t="s" s="2">
         <v>44</v>
@@ -11516,16 +11455,16 @@
         <v>44</v>
       </c>
       <c r="AJ84" t="s" s="2">
-        <v>458</v>
+        <v>44</v>
       </c>
       <c r="AK84" t="s" s="2">
-        <v>450</v>
+        <v>44</v>
       </c>
       <c r="AL84" t="s" s="2">
-        <v>459</v>
+        <v>44</v>
       </c>
       <c r="AM84" t="s" s="2">
-        <v>452</v>
+        <v>44</v>
       </c>
       <c r="AN84" t="s" s="2">
         <v>44</v>
@@ -11533,7 +11472,7 @@
     </row>
     <row r="85" hidden="true">
       <c r="A85" t="s" s="2">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="B85" s="2"/>
       <c r="C85" t="s" s="2">
@@ -11541,10 +11480,10 @@
       </c>
       <c r="D85" s="2"/>
       <c r="E85" t="s" s="2">
-        <v>42</v>
+        <v>53</v>
       </c>
       <c r="F85" t="s" s="2">
-        <v>43</v>
+        <v>53</v>
       </c>
       <c r="G85" t="s" s="2">
         <v>44</v>
@@ -11556,24 +11495,26 @@
         <v>54</v>
       </c>
       <c r="J85" t="s" s="2">
-        <v>141</v>
+        <v>66</v>
       </c>
       <c r="K85" t="s" s="2">
-        <v>461</v>
+        <v>287</v>
       </c>
       <c r="L85" t="s" s="2">
-        <v>462</v>
+        <v>288</v>
       </c>
       <c r="M85" t="s" s="2">
-        <v>463</v>
-      </c>
-      <c r="N85" s="2"/>
+        <v>289</v>
+      </c>
+      <c r="N85" t="s" s="2">
+        <v>290</v>
+      </c>
       <c r="O85" t="s" s="2">
         <v>44</v>
       </c>
       <c r="P85" s="2"/>
       <c r="Q85" t="s" s="2">
-        <v>44</v>
+        <v>291</v>
       </c>
       <c r="R85" t="s" s="2">
         <v>44</v>
@@ -11591,13 +11532,13 @@
         <v>44</v>
       </c>
       <c r="W85" t="s" s="2">
-        <v>261</v>
+        <v>44</v>
       </c>
       <c r="X85" t="s" s="2">
-        <v>464</v>
+        <v>44</v>
       </c>
       <c r="Y85" t="s" s="2">
-        <v>465</v>
+        <v>44</v>
       </c>
       <c r="Z85" t="s" s="2">
         <v>44</v>
@@ -11615,13 +11556,13 @@
         <v>44</v>
       </c>
       <c r="AE85" t="s" s="2">
-        <v>460</v>
+        <v>292</v>
       </c>
       <c r="AF85" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AG85" t="s" s="2">
-        <v>43</v>
+        <v>53</v>
       </c>
       <c r="AH85" t="s" s="2">
         <v>44</v>
@@ -11630,16 +11571,16 @@
         <v>44</v>
       </c>
       <c r="AJ85" t="s" s="2">
-        <v>466</v>
+        <v>44</v>
       </c>
       <c r="AK85" t="s" s="2">
-        <v>467</v>
+        <v>293</v>
       </c>
       <c r="AL85" t="s" s="2">
-        <v>468</v>
+        <v>294</v>
       </c>
       <c r="AM85" t="s" s="2">
-        <v>469</v>
+        <v>44</v>
       </c>
       <c r="AN85" t="s" s="2">
         <v>44</v>
@@ -11647,7 +11588,7 @@
     </row>
     <row r="86" hidden="true">
       <c r="A86" t="s" s="2">
-        <v>470</v>
+        <v>462</v>
       </c>
       <c r="B86" s="2"/>
       <c r="C86" t="s" s="2">
@@ -11658,7 +11599,7 @@
         <v>42</v>
       </c>
       <c r="F86" t="s" s="2">
-        <v>53</v>
+        <v>42</v>
       </c>
       <c r="G86" t="s" s="2">
         <v>44</v>
@@ -11667,18 +11608,20 @@
         <v>44</v>
       </c>
       <c r="I86" t="s" s="2">
-        <v>44</v>
+        <v>54</v>
       </c>
       <c r="J86" t="s" s="2">
         <v>119</v>
       </c>
       <c r="K86" t="s" s="2">
-        <v>120</v>
+        <v>296</v>
       </c>
       <c r="L86" t="s" s="2">
-        <v>121</v>
-      </c>
-      <c r="M86" s="2"/>
+        <v>297</v>
+      </c>
+      <c r="M86" t="s" s="2">
+        <v>298</v>
+      </c>
       <c r="N86" s="2"/>
       <c r="O86" t="s" s="2">
         <v>44</v>
@@ -11727,7 +11670,7 @@
         <v>44</v>
       </c>
       <c r="AE86" t="s" s="2">
-        <v>122</v>
+        <v>299</v>
       </c>
       <c r="AF86" t="s" s="2">
         <v>42</v>
@@ -11745,10 +11688,10 @@
         <v>44</v>
       </c>
       <c r="AK86" t="s" s="2">
-        <v>44</v>
+        <v>300</v>
       </c>
       <c r="AL86" t="s" s="2">
-        <v>123</v>
+        <v>301</v>
       </c>
       <c r="AM86" t="s" s="2">
         <v>44</v>
@@ -11759,18 +11702,18 @@
     </row>
     <row r="87" hidden="true">
       <c r="A87" t="s" s="2">
-        <v>471</v>
+        <v>463</v>
       </c>
       <c r="B87" s="2"/>
       <c r="C87" t="s" s="2">
-        <v>98</v>
+        <v>44</v>
       </c>
       <c r="D87" s="2"/>
       <c r="E87" t="s" s="2">
-        <v>42</v>
+        <v>53</v>
       </c>
       <c r="F87" t="s" s="2">
-        <v>43</v>
+        <v>53</v>
       </c>
       <c r="G87" t="s" s="2">
         <v>44</v>
@@ -11779,21 +11722,21 @@
         <v>44</v>
       </c>
       <c r="I87" t="s" s="2">
-        <v>44</v>
+        <v>54</v>
       </c>
       <c r="J87" t="s" s="2">
-        <v>99</v>
+        <v>72</v>
       </c>
       <c r="K87" t="s" s="2">
-        <v>100</v>
+        <v>303</v>
       </c>
       <c r="L87" t="s" s="2">
-        <v>125</v>
-      </c>
-      <c r="M87" t="s" s="2">
-        <v>102</v>
-      </c>
-      <c r="N87" s="2"/>
+        <v>304</v>
+      </c>
+      <c r="M87" s="2"/>
+      <c r="N87" t="s" s="2">
+        <v>305</v>
+      </c>
       <c r="O87" t="s" s="2">
         <v>44</v>
       </c>
@@ -11829,25 +11772,25 @@
         <v>44</v>
       </c>
       <c r="AA87" t="s" s="2">
-        <v>126</v>
+        <v>44</v>
       </c>
       <c r="AB87" t="s" s="2">
-        <v>127</v>
+        <v>44</v>
       </c>
       <c r="AC87" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AD87" t="s" s="2">
-        <v>128</v>
+        <v>44</v>
       </c>
       <c r="AE87" t="s" s="2">
-        <v>129</v>
+        <v>306</v>
       </c>
       <c r="AF87" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AG87" t="s" s="2">
-        <v>43</v>
+        <v>53</v>
       </c>
       <c r="AH87" t="s" s="2">
         <v>44</v>
@@ -11859,10 +11802,10 @@
         <v>44</v>
       </c>
       <c r="AK87" t="s" s="2">
-        <v>44</v>
+        <v>307</v>
       </c>
       <c r="AL87" t="s" s="2">
-        <v>123</v>
+        <v>308</v>
       </c>
       <c r="AM87" t="s" s="2">
         <v>44</v>
@@ -11873,7 +11816,7 @@
     </row>
     <row r="88" hidden="true">
       <c r="A88" t="s" s="2">
-        <v>472</v>
+        <v>464</v>
       </c>
       <c r="B88" s="2"/>
       <c r="C88" t="s" s="2">
@@ -11881,10 +11824,10 @@
       </c>
       <c r="D88" s="2"/>
       <c r="E88" t="s" s="2">
-        <v>42</v>
+        <v>53</v>
       </c>
       <c r="F88" t="s" s="2">
-        <v>43</v>
+        <v>53</v>
       </c>
       <c r="G88" t="s" s="2">
         <v>44</v>
@@ -11896,19 +11839,17 @@
         <v>54</v>
       </c>
       <c r="J88" t="s" s="2">
-        <v>268</v>
+        <v>119</v>
       </c>
       <c r="K88" t="s" s="2">
-        <v>269</v>
+        <v>310</v>
       </c>
       <c r="L88" t="s" s="2">
-        <v>270</v>
-      </c>
-      <c r="M88" t="s" s="2">
-        <v>271</v>
-      </c>
+        <v>311</v>
+      </c>
+      <c r="M88" s="2"/>
       <c r="N88" t="s" s="2">
-        <v>272</v>
+        <v>312</v>
       </c>
       <c r="O88" t="s" s="2">
         <v>44</v>
@@ -11945,23 +11886,25 @@
         <v>44</v>
       </c>
       <c r="AA88" t="s" s="2">
-        <v>273</v>
-      </c>
-      <c r="AB88" s="2"/>
+        <v>44</v>
+      </c>
+      <c r="AB88" t="s" s="2">
+        <v>44</v>
+      </c>
       <c r="AC88" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AD88" t="s" s="2">
-        <v>128</v>
+        <v>44</v>
       </c>
       <c r="AE88" t="s" s="2">
-        <v>274</v>
+        <v>313</v>
       </c>
       <c r="AF88" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AG88" t="s" s="2">
-        <v>43</v>
+        <v>53</v>
       </c>
       <c r="AH88" t="s" s="2">
         <v>44</v>
@@ -11973,10 +11916,10 @@
         <v>44</v>
       </c>
       <c r="AK88" t="s" s="2">
-        <v>275</v>
+        <v>314</v>
       </c>
       <c r="AL88" t="s" s="2">
-        <v>276</v>
+        <v>315</v>
       </c>
       <c r="AM88" t="s" s="2">
         <v>44</v>
@@ -11987,11 +11930,9 @@
     </row>
     <row r="89" hidden="true">
       <c r="A89" t="s" s="2">
-        <v>472</v>
-      </c>
-      <c r="B89" t="s" s="2">
-        <v>277</v>
-      </c>
+        <v>465</v>
+      </c>
+      <c r="B89" s="2"/>
       <c r="C89" t="s" s="2">
         <v>44</v>
       </c>
@@ -12000,7 +11941,7 @@
         <v>42</v>
       </c>
       <c r="F89" t="s" s="2">
-        <v>43</v>
+        <v>53</v>
       </c>
       <c r="G89" t="s" s="2">
         <v>44</v>
@@ -12012,19 +11953,19 @@
         <v>54</v>
       </c>
       <c r="J89" t="s" s="2">
-        <v>268</v>
+        <v>249</v>
       </c>
       <c r="K89" t="s" s="2">
-        <v>269</v>
+        <v>317</v>
       </c>
       <c r="L89" t="s" s="2">
-        <v>270</v>
+        <v>318</v>
       </c>
       <c r="M89" t="s" s="2">
-        <v>271</v>
+        <v>319</v>
       </c>
       <c r="N89" t="s" s="2">
-        <v>272</v>
+        <v>320</v>
       </c>
       <c r="O89" t="s" s="2">
         <v>44</v>
@@ -12073,13 +12014,13 @@
         <v>44</v>
       </c>
       <c r="AE89" t="s" s="2">
-        <v>274</v>
+        <v>321</v>
       </c>
       <c r="AF89" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AG89" t="s" s="2">
-        <v>43</v>
+        <v>53</v>
       </c>
       <c r="AH89" t="s" s="2">
         <v>44</v>
@@ -12091,10 +12032,10 @@
         <v>44</v>
       </c>
       <c r="AK89" t="s" s="2">
-        <v>275</v>
+        <v>322</v>
       </c>
       <c r="AL89" t="s" s="2">
-        <v>276</v>
+        <v>323</v>
       </c>
       <c r="AM89" t="s" s="2">
         <v>44</v>
@@ -12105,7 +12046,7 @@
     </row>
     <row r="90" hidden="true">
       <c r="A90" t="s" s="2">
-        <v>473</v>
+        <v>466</v>
       </c>
       <c r="B90" s="2"/>
       <c r="C90" t="s" s="2">
@@ -12125,19 +12066,23 @@
         <v>44</v>
       </c>
       <c r="I90" t="s" s="2">
-        <v>44</v>
+        <v>54</v>
       </c>
       <c r="J90" t="s" s="2">
         <v>119</v>
       </c>
       <c r="K90" t="s" s="2">
-        <v>120</v>
+        <v>325</v>
       </c>
       <c r="L90" t="s" s="2">
-        <v>121</v>
-      </c>
-      <c r="M90" s="2"/>
-      <c r="N90" s="2"/>
+        <v>326</v>
+      </c>
+      <c r="M90" t="s" s="2">
+        <v>327</v>
+      </c>
+      <c r="N90" t="s" s="2">
+        <v>328</v>
+      </c>
       <c r="O90" t="s" s="2">
         <v>44</v>
       </c>
@@ -12185,7 +12130,7 @@
         <v>44</v>
       </c>
       <c r="AE90" t="s" s="2">
-        <v>122</v>
+        <v>329</v>
       </c>
       <c r="AF90" t="s" s="2">
         <v>42</v>
@@ -12203,10 +12148,10 @@
         <v>44</v>
       </c>
       <c r="AK90" t="s" s="2">
-        <v>44</v>
+        <v>330</v>
       </c>
       <c r="AL90" t="s" s="2">
-        <v>123</v>
+        <v>331</v>
       </c>
       <c r="AM90" t="s" s="2">
         <v>44</v>
@@ -12217,7 +12162,7 @@
     </row>
     <row r="91" hidden="true">
       <c r="A91" t="s" s="2">
-        <v>474</v>
+        <v>467</v>
       </c>
       <c r="B91" s="2"/>
       <c r="C91" t="s" s="2">
@@ -12237,18 +12182,20 @@
         <v>44</v>
       </c>
       <c r="I91" t="s" s="2">
-        <v>44</v>
+        <v>54</v>
       </c>
       <c r="J91" t="s" s="2">
-        <v>99</v>
+        <v>468</v>
       </c>
       <c r="K91" t="s" s="2">
-        <v>280</v>
+        <v>447</v>
       </c>
       <c r="L91" t="s" s="2">
-        <v>281</v>
-      </c>
-      <c r="M91" s="2"/>
+        <v>469</v>
+      </c>
+      <c r="M91" t="s" s="2">
+        <v>449</v>
+      </c>
       <c r="N91" s="2"/>
       <c r="O91" t="s" s="2">
         <v>44</v>
@@ -12285,19 +12232,19 @@
         <v>44</v>
       </c>
       <c r="AA91" t="s" s="2">
-        <v>126</v>
+        <v>44</v>
       </c>
       <c r="AB91" t="s" s="2">
-        <v>127</v>
+        <v>44</v>
       </c>
       <c r="AC91" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AD91" t="s" s="2">
-        <v>128</v>
+        <v>44</v>
       </c>
       <c r="AE91" t="s" s="2">
-        <v>129</v>
+        <v>467</v>
       </c>
       <c r="AF91" t="s" s="2">
         <v>42</v>
@@ -12312,16 +12259,16 @@
         <v>44</v>
       </c>
       <c r="AJ91" t="s" s="2">
-        <v>44</v>
+        <v>470</v>
       </c>
       <c r="AK91" t="s" s="2">
-        <v>44</v>
+        <v>453</v>
       </c>
       <c r="AL91" t="s" s="2">
-        <v>44</v>
+        <v>471</v>
       </c>
       <c r="AM91" t="s" s="2">
-        <v>44</v>
+        <v>455</v>
       </c>
       <c r="AN91" t="s" s="2">
         <v>44</v>
@@ -12329,13 +12276,11 @@
     </row>
     <row r="92" hidden="true">
       <c r="A92" t="s" s="2">
-        <v>474</v>
-      </c>
-      <c r="B92" t="s" s="2">
-        <v>282</v>
-      </c>
+        <v>472</v>
+      </c>
+      <c r="B92" s="2"/>
       <c r="C92" t="s" s="2">
-        <v>44</v>
+        <v>473</v>
       </c>
       <c r="D92" s="2"/>
       <c r="E92" t="s" s="2">
@@ -12354,13 +12299,13 @@
         <v>44</v>
       </c>
       <c r="J92" t="s" s="2">
-        <v>283</v>
+        <v>474</v>
       </c>
       <c r="K92" t="s" s="2">
-        <v>280</v>
+        <v>475</v>
       </c>
       <c r="L92" t="s" s="2">
-        <v>281</v>
+        <v>476</v>
       </c>
       <c r="M92" s="2"/>
       <c r="N92" s="2"/>
@@ -12411,7 +12356,7 @@
         <v>44</v>
       </c>
       <c r="AE92" t="s" s="2">
-        <v>129</v>
+        <v>472</v>
       </c>
       <c r="AF92" t="s" s="2">
         <v>42</v>
@@ -12426,13 +12371,13 @@
         <v>44</v>
       </c>
       <c r="AJ92" t="s" s="2">
-        <v>44</v>
+        <v>477</v>
       </c>
       <c r="AK92" t="s" s="2">
-        <v>44</v>
+        <v>478</v>
       </c>
       <c r="AL92" t="s" s="2">
-        <v>44</v>
+        <v>479</v>
       </c>
       <c r="AM92" t="s" s="2">
         <v>44</v>
@@ -12443,7 +12388,7 @@
     </row>
     <row r="93" hidden="true">
       <c r="A93" t="s" s="2">
-        <v>475</v>
+        <v>480</v>
       </c>
       <c r="B93" s="2"/>
       <c r="C93" t="s" s="2">
@@ -12454,7 +12399,7 @@
         <v>42</v>
       </c>
       <c r="F93" t="s" s="2">
-        <v>53</v>
+        <v>43</v>
       </c>
       <c r="G93" t="s" s="2">
         <v>44</v>
@@ -12463,18 +12408,20 @@
         <v>44</v>
       </c>
       <c r="I93" t="s" s="2">
-        <v>44</v>
+        <v>54</v>
       </c>
       <c r="J93" t="s" s="2">
-        <v>119</v>
+        <v>481</v>
       </c>
       <c r="K93" t="s" s="2">
-        <v>120</v>
+        <v>482</v>
       </c>
       <c r="L93" t="s" s="2">
-        <v>121</v>
-      </c>
-      <c r="M93" s="2"/>
+        <v>483</v>
+      </c>
+      <c r="M93" t="s" s="2">
+        <v>484</v>
+      </c>
       <c r="N93" s="2"/>
       <c r="O93" t="s" s="2">
         <v>44</v>
@@ -12523,13 +12470,13 @@
         <v>44</v>
       </c>
       <c r="AE93" t="s" s="2">
-        <v>122</v>
+        <v>480</v>
       </c>
       <c r="AF93" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AG93" t="s" s="2">
-        <v>53</v>
+        <v>43</v>
       </c>
       <c r="AH93" t="s" s="2">
         <v>44</v>
@@ -12541,10 +12488,10 @@
         <v>44</v>
       </c>
       <c r="AK93" t="s" s="2">
-        <v>44</v>
+        <v>485</v>
       </c>
       <c r="AL93" t="s" s="2">
-        <v>123</v>
+        <v>486</v>
       </c>
       <c r="AM93" t="s" s="2">
         <v>44</v>
@@ -12555,11 +12502,11 @@
     </row>
     <row r="94" hidden="true">
       <c r="A94" t="s" s="2">
-        <v>476</v>
+        <v>487</v>
       </c>
       <c r="B94" s="2"/>
       <c r="C94" t="s" s="2">
-        <v>98</v>
+        <v>488</v>
       </c>
       <c r="D94" s="2"/>
       <c r="E94" t="s" s="2">
@@ -12575,21 +12522,23 @@
         <v>44</v>
       </c>
       <c r="I94" t="s" s="2">
-        <v>44</v>
+        <v>54</v>
       </c>
       <c r="J94" t="s" s="2">
-        <v>99</v>
+        <v>141</v>
       </c>
       <c r="K94" t="s" s="2">
-        <v>100</v>
+        <v>489</v>
       </c>
       <c r="L94" t="s" s="2">
-        <v>125</v>
+        <v>490</v>
       </c>
       <c r="M94" t="s" s="2">
-        <v>102</v>
-      </c>
-      <c r="N94" s="2"/>
+        <v>491</v>
+      </c>
+      <c r="N94" t="s" s="2">
+        <v>492</v>
+      </c>
       <c r="O94" t="s" s="2">
         <v>44</v>
       </c>
@@ -12613,31 +12562,31 @@
         <v>44</v>
       </c>
       <c r="W94" t="s" s="2">
-        <v>44</v>
+        <v>261</v>
       </c>
       <c r="X94" t="s" s="2">
-        <v>44</v>
+        <v>493</v>
       </c>
       <c r="Y94" t="s" s="2">
-        <v>44</v>
+        <v>494</v>
       </c>
       <c r="Z94" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AA94" t="s" s="2">
-        <v>126</v>
+        <v>44</v>
       </c>
       <c r="AB94" t="s" s="2">
-        <v>127</v>
+        <v>44</v>
       </c>
       <c r="AC94" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AD94" t="s" s="2">
-        <v>128</v>
+        <v>44</v>
       </c>
       <c r="AE94" t="s" s="2">
-        <v>129</v>
+        <v>487</v>
       </c>
       <c r="AF94" t="s" s="2">
         <v>42</v>
@@ -12655,21 +12604,21 @@
         <v>44</v>
       </c>
       <c r="AK94" t="s" s="2">
-        <v>44</v>
+        <v>485</v>
       </c>
       <c r="AL94" t="s" s="2">
-        <v>123</v>
+        <v>495</v>
       </c>
       <c r="AM94" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AN94" t="s" s="2">
-        <v>44</v>
+        <v>496</v>
       </c>
     </row>
     <row r="95" hidden="true">
       <c r="A95" t="s" s="2">
-        <v>477</v>
+        <v>497</v>
       </c>
       <c r="B95" s="2"/>
       <c r="C95" t="s" s="2">
@@ -12677,7 +12626,7 @@
       </c>
       <c r="D95" s="2"/>
       <c r="E95" t="s" s="2">
-        <v>53</v>
+        <v>42</v>
       </c>
       <c r="F95" t="s" s="2">
         <v>53</v>
@@ -12692,17 +12641,15 @@
         <v>44</v>
       </c>
       <c r="J95" t="s" s="2">
-        <v>66</v>
+        <v>119</v>
       </c>
       <c r="K95" t="s" s="2">
-        <v>287</v>
+        <v>120</v>
       </c>
       <c r="L95" t="s" s="2">
-        <v>288</v>
-      </c>
-      <c r="M95" t="s" s="2">
-        <v>289</v>
-      </c>
+        <v>121</v>
+      </c>
+      <c r="M95" s="2"/>
       <c r="N95" s="2"/>
       <c r="O95" t="s" s="2">
         <v>44</v>
@@ -12751,10 +12698,10 @@
         <v>44</v>
       </c>
       <c r="AE95" t="s" s="2">
-        <v>290</v>
+        <v>122</v>
       </c>
       <c r="AF95" t="s" s="2">
-        <v>53</v>
+        <v>42</v>
       </c>
       <c r="AG95" t="s" s="2">
         <v>53</v>
@@ -12772,7 +12719,7 @@
         <v>44</v>
       </c>
       <c r="AL95" t="s" s="2">
-        <v>96</v>
+        <v>123</v>
       </c>
       <c r="AM95" t="s" s="2">
         <v>44</v>
@@ -12783,18 +12730,18 @@
     </row>
     <row r="96" hidden="true">
       <c r="A96" t="s" s="2">
-        <v>478</v>
+        <v>498</v>
       </c>
       <c r="B96" s="2"/>
       <c r="C96" t="s" s="2">
-        <v>44</v>
+        <v>98</v>
       </c>
       <c r="D96" s="2"/>
       <c r="E96" t="s" s="2">
         <v>42</v>
       </c>
       <c r="F96" t="s" s="2">
-        <v>53</v>
+        <v>43</v>
       </c>
       <c r="G96" t="s" s="2">
         <v>44</v>
@@ -12806,15 +12753,17 @@
         <v>44</v>
       </c>
       <c r="J96" t="s" s="2">
-        <v>292</v>
+        <v>99</v>
       </c>
       <c r="K96" t="s" s="2">
-        <v>293</v>
+        <v>100</v>
       </c>
       <c r="L96" t="s" s="2">
-        <v>294</v>
-      </c>
-      <c r="M96" s="2"/>
+        <v>125</v>
+      </c>
+      <c r="M96" t="s" s="2">
+        <v>102</v>
+      </c>
       <c r="N96" s="2"/>
       <c r="O96" t="s" s="2">
         <v>44</v>
@@ -12851,25 +12800,25 @@
         <v>44</v>
       </c>
       <c r="AA96" t="s" s="2">
-        <v>44</v>
+        <v>126</v>
       </c>
       <c r="AB96" t="s" s="2">
-        <v>44</v>
+        <v>127</v>
       </c>
       <c r="AC96" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AD96" t="s" s="2">
-        <v>44</v>
+        <v>128</v>
       </c>
       <c r="AE96" t="s" s="2">
-        <v>295</v>
+        <v>129</v>
       </c>
       <c r="AF96" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AG96" t="s" s="2">
-        <v>53</v>
+        <v>43</v>
       </c>
       <c r="AH96" t="s" s="2">
         <v>44</v>
@@ -12884,7 +12833,7 @@
         <v>44</v>
       </c>
       <c r="AL96" t="s" s="2">
-        <v>96</v>
+        <v>123</v>
       </c>
       <c r="AM96" t="s" s="2">
         <v>44</v>
@@ -12895,7 +12844,7 @@
     </row>
     <row r="97" hidden="true">
       <c r="A97" t="s" s="2">
-        <v>479</v>
+        <v>499</v>
       </c>
       <c r="B97" s="2"/>
       <c r="C97" t="s" s="2">
@@ -12903,10 +12852,10 @@
       </c>
       <c r="D97" s="2"/>
       <c r="E97" t="s" s="2">
-        <v>53</v>
+        <v>42</v>
       </c>
       <c r="F97" t="s" s="2">
-        <v>53</v>
+        <v>43</v>
       </c>
       <c r="G97" t="s" s="2">
         <v>44</v>
@@ -12918,26 +12867,26 @@
         <v>54</v>
       </c>
       <c r="J97" t="s" s="2">
-        <v>66</v>
+        <v>268</v>
       </c>
       <c r="K97" t="s" s="2">
-        <v>297</v>
+        <v>269</v>
       </c>
       <c r="L97" t="s" s="2">
-        <v>298</v>
+        <v>270</v>
       </c>
       <c r="M97" t="s" s="2">
-        <v>299</v>
+        <v>271</v>
       </c>
       <c r="N97" t="s" s="2">
-        <v>300</v>
+        <v>272</v>
       </c>
       <c r="O97" t="s" s="2">
         <v>44</v>
       </c>
       <c r="P97" s="2"/>
       <c r="Q97" t="s" s="2">
-        <v>301</v>
+        <v>44</v>
       </c>
       <c r="R97" t="s" s="2">
         <v>44</v>
@@ -12967,25 +12916,23 @@
         <v>44</v>
       </c>
       <c r="AA97" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AB97" t="s" s="2">
-        <v>44</v>
-      </c>
+        <v>273</v>
+      </c>
+      <c r="AB97" s="2"/>
       <c r="AC97" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AD97" t="s" s="2">
-        <v>44</v>
+        <v>128</v>
       </c>
       <c r="AE97" t="s" s="2">
-        <v>302</v>
+        <v>274</v>
       </c>
       <c r="AF97" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AG97" t="s" s="2">
-        <v>53</v>
+        <v>43</v>
       </c>
       <c r="AH97" t="s" s="2">
         <v>44</v>
@@ -12997,10 +12944,10 @@
         <v>44</v>
       </c>
       <c r="AK97" t="s" s="2">
-        <v>303</v>
+        <v>275</v>
       </c>
       <c r="AL97" t="s" s="2">
-        <v>304</v>
+        <v>276</v>
       </c>
       <c r="AM97" t="s" s="2">
         <v>44</v>
@@ -13011,9 +12958,11 @@
     </row>
     <row r="98" hidden="true">
       <c r="A98" t="s" s="2">
-        <v>480</v>
-      </c>
-      <c r="B98" s="2"/>
+        <v>499</v>
+      </c>
+      <c r="B98" t="s" s="2">
+        <v>277</v>
+      </c>
       <c r="C98" t="s" s="2">
         <v>44</v>
       </c>
@@ -13022,7 +12971,7 @@
         <v>42</v>
       </c>
       <c r="F98" t="s" s="2">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="G98" t="s" s="2">
         <v>44</v>
@@ -13034,18 +12983,20 @@
         <v>54</v>
       </c>
       <c r="J98" t="s" s="2">
-        <v>119</v>
+        <v>268</v>
       </c>
       <c r="K98" t="s" s="2">
-        <v>306</v>
+        <v>269</v>
       </c>
       <c r="L98" t="s" s="2">
-        <v>307</v>
+        <v>270</v>
       </c>
       <c r="M98" t="s" s="2">
-        <v>308</v>
-      </c>
-      <c r="N98" s="2"/>
+        <v>271</v>
+      </c>
+      <c r="N98" t="s" s="2">
+        <v>272</v>
+      </c>
       <c r="O98" t="s" s="2">
         <v>44</v>
       </c>
@@ -13069,13 +13020,13 @@
         <v>44</v>
       </c>
       <c r="W98" t="s" s="2">
-        <v>44</v>
+        <v>500</v>
       </c>
       <c r="X98" t="s" s="2">
-        <v>44</v>
+        <v>501</v>
       </c>
       <c r="Y98" t="s" s="2">
-        <v>44</v>
+        <v>502</v>
       </c>
       <c r="Z98" t="s" s="2">
         <v>44</v>
@@ -13093,13 +13044,13 @@
         <v>44</v>
       </c>
       <c r="AE98" t="s" s="2">
-        <v>309</v>
+        <v>274</v>
       </c>
       <c r="AF98" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AG98" t="s" s="2">
-        <v>53</v>
+        <v>43</v>
       </c>
       <c r="AH98" t="s" s="2">
         <v>44</v>
@@ -13111,10 +13062,10 @@
         <v>44</v>
       </c>
       <c r="AK98" t="s" s="2">
-        <v>310</v>
+        <v>275</v>
       </c>
       <c r="AL98" t="s" s="2">
-        <v>311</v>
+        <v>276</v>
       </c>
       <c r="AM98" t="s" s="2">
         <v>44</v>
@@ -13125,7 +13076,7 @@
     </row>
     <row r="99" hidden="true">
       <c r="A99" t="s" s="2">
-        <v>481</v>
+        <v>503</v>
       </c>
       <c r="B99" s="2"/>
       <c r="C99" t="s" s="2">
@@ -13133,7 +13084,7 @@
       </c>
       <c r="D99" s="2"/>
       <c r="E99" t="s" s="2">
-        <v>53</v>
+        <v>42</v>
       </c>
       <c r="F99" t="s" s="2">
         <v>53</v>
@@ -13145,21 +13096,19 @@
         <v>44</v>
       </c>
       <c r="I99" t="s" s="2">
-        <v>54</v>
+        <v>44</v>
       </c>
       <c r="J99" t="s" s="2">
-        <v>72</v>
+        <v>119</v>
       </c>
       <c r="K99" t="s" s="2">
-        <v>313</v>
+        <v>120</v>
       </c>
       <c r="L99" t="s" s="2">
-        <v>314</v>
+        <v>121</v>
       </c>
       <c r="M99" s="2"/>
-      <c r="N99" t="s" s="2">
-        <v>315</v>
-      </c>
+      <c r="N99" s="2"/>
       <c r="O99" t="s" s="2">
         <v>44</v>
       </c>
@@ -13207,7 +13156,7 @@
         <v>44</v>
       </c>
       <c r="AE99" t="s" s="2">
-        <v>316</v>
+        <v>122</v>
       </c>
       <c r="AF99" t="s" s="2">
         <v>42</v>
@@ -13225,10 +13174,10 @@
         <v>44</v>
       </c>
       <c r="AK99" t="s" s="2">
-        <v>317</v>
+        <v>44</v>
       </c>
       <c r="AL99" t="s" s="2">
-        <v>318</v>
+        <v>123</v>
       </c>
       <c r="AM99" t="s" s="2">
         <v>44</v>
@@ -13239,7 +13188,7 @@
     </row>
     <row r="100" hidden="true">
       <c r="A100" t="s" s="2">
-        <v>482</v>
+        <v>504</v>
       </c>
       <c r="B100" s="2"/>
       <c r="C100" t="s" s="2">
@@ -13247,10 +13196,10 @@
       </c>
       <c r="D100" s="2"/>
       <c r="E100" t="s" s="2">
-        <v>53</v>
+        <v>42</v>
       </c>
       <c r="F100" t="s" s="2">
-        <v>53</v>
+        <v>43</v>
       </c>
       <c r="G100" t="s" s="2">
         <v>44</v>
@@ -13259,21 +13208,19 @@
         <v>44</v>
       </c>
       <c r="I100" t="s" s="2">
-        <v>54</v>
+        <v>44</v>
       </c>
       <c r="J100" t="s" s="2">
-        <v>119</v>
+        <v>99</v>
       </c>
       <c r="K100" t="s" s="2">
-        <v>320</v>
+        <v>280</v>
       </c>
       <c r="L100" t="s" s="2">
-        <v>321</v>
+        <v>281</v>
       </c>
       <c r="M100" s="2"/>
-      <c r="N100" t="s" s="2">
-        <v>322</v>
-      </c>
+      <c r="N100" s="2"/>
       <c r="O100" t="s" s="2">
         <v>44</v>
       </c>
@@ -13309,25 +13256,25 @@
         <v>44</v>
       </c>
       <c r="AA100" t="s" s="2">
-        <v>44</v>
+        <v>126</v>
       </c>
       <c r="AB100" t="s" s="2">
-        <v>44</v>
+        <v>127</v>
       </c>
       <c r="AC100" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AD100" t="s" s="2">
-        <v>44</v>
+        <v>128</v>
       </c>
       <c r="AE100" t="s" s="2">
-        <v>323</v>
+        <v>129</v>
       </c>
       <c r="AF100" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AG100" t="s" s="2">
-        <v>53</v>
+        <v>43</v>
       </c>
       <c r="AH100" t="s" s="2">
         <v>44</v>
@@ -13339,10 +13286,10 @@
         <v>44</v>
       </c>
       <c r="AK100" t="s" s="2">
-        <v>324</v>
+        <v>44</v>
       </c>
       <c r="AL100" t="s" s="2">
-        <v>325</v>
+        <v>44</v>
       </c>
       <c r="AM100" t="s" s="2">
         <v>44</v>
@@ -13353,9 +13300,11 @@
     </row>
     <row r="101" hidden="true">
       <c r="A101" t="s" s="2">
-        <v>483</v>
-      </c>
-      <c r="B101" s="2"/>
+        <v>504</v>
+      </c>
+      <c r="B101" t="s" s="2">
+        <v>282</v>
+      </c>
       <c r="C101" t="s" s="2">
         <v>44</v>
       </c>
@@ -13364,7 +13313,7 @@
         <v>42</v>
       </c>
       <c r="F101" t="s" s="2">
-        <v>53</v>
+        <v>43</v>
       </c>
       <c r="G101" t="s" s="2">
         <v>44</v>
@@ -13373,23 +13322,19 @@
         <v>44</v>
       </c>
       <c r="I101" t="s" s="2">
-        <v>54</v>
+        <v>44</v>
       </c>
       <c r="J101" t="s" s="2">
-        <v>249</v>
+        <v>283</v>
       </c>
       <c r="K101" t="s" s="2">
-        <v>327</v>
+        <v>284</v>
       </c>
       <c r="L101" t="s" s="2">
-        <v>328</v>
-      </c>
-      <c r="M101" t="s" s="2">
-        <v>329</v>
-      </c>
-      <c r="N101" t="s" s="2">
-        <v>330</v>
-      </c>
+        <v>285</v>
+      </c>
+      <c r="M101" s="2"/>
+      <c r="N101" s="2"/>
       <c r="O101" t="s" s="2">
         <v>44</v>
       </c>
@@ -13437,13 +13382,13 @@
         <v>44</v>
       </c>
       <c r="AE101" t="s" s="2">
-        <v>331</v>
+        <v>129</v>
       </c>
       <c r="AF101" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AG101" t="s" s="2">
-        <v>53</v>
+        <v>43</v>
       </c>
       <c r="AH101" t="s" s="2">
         <v>44</v>
@@ -13455,10 +13400,10 @@
         <v>44</v>
       </c>
       <c r="AK101" t="s" s="2">
-        <v>332</v>
+        <v>44</v>
       </c>
       <c r="AL101" t="s" s="2">
-        <v>333</v>
+        <v>44</v>
       </c>
       <c r="AM101" t="s" s="2">
         <v>44</v>
@@ -13469,7 +13414,7 @@
     </row>
     <row r="102" hidden="true">
       <c r="A102" t="s" s="2">
-        <v>484</v>
+        <v>505</v>
       </c>
       <c r="B102" s="2"/>
       <c r="C102" t="s" s="2">
@@ -13477,7 +13422,7 @@
       </c>
       <c r="D102" s="2"/>
       <c r="E102" t="s" s="2">
-        <v>42</v>
+        <v>53</v>
       </c>
       <c r="F102" t="s" s="2">
         <v>53</v>
@@ -13492,26 +13437,26 @@
         <v>54</v>
       </c>
       <c r="J102" t="s" s="2">
-        <v>119</v>
+        <v>66</v>
       </c>
       <c r="K102" t="s" s="2">
-        <v>335</v>
+        <v>287</v>
       </c>
       <c r="L102" t="s" s="2">
-        <v>336</v>
+        <v>288</v>
       </c>
       <c r="M102" t="s" s="2">
-        <v>337</v>
+        <v>289</v>
       </c>
       <c r="N102" t="s" s="2">
-        <v>338</v>
+        <v>290</v>
       </c>
       <c r="O102" t="s" s="2">
         <v>44</v>
       </c>
       <c r="P102" s="2"/>
       <c r="Q102" t="s" s="2">
-        <v>44</v>
+        <v>291</v>
       </c>
       <c r="R102" t="s" s="2">
         <v>44</v>
@@ -13553,7 +13498,7 @@
         <v>44</v>
       </c>
       <c r="AE102" t="s" s="2">
-        <v>339</v>
+        <v>292</v>
       </c>
       <c r="AF102" t="s" s="2">
         <v>42</v>
@@ -13571,10 +13516,10 @@
         <v>44</v>
       </c>
       <c r="AK102" t="s" s="2">
-        <v>340</v>
+        <v>293</v>
       </c>
       <c r="AL102" t="s" s="2">
-        <v>341</v>
+        <v>294</v>
       </c>
       <c r="AM102" t="s" s="2">
         <v>44</v>
@@ -13585,7 +13530,7 @@
     </row>
     <row r="103" hidden="true">
       <c r="A103" t="s" s="2">
-        <v>485</v>
+        <v>506</v>
       </c>
       <c r="B103" s="2"/>
       <c r="C103" t="s" s="2">
@@ -13596,7 +13541,7 @@
         <v>42</v>
       </c>
       <c r="F103" t="s" s="2">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G103" t="s" s="2">
         <v>44</v>
@@ -13608,16 +13553,16 @@
         <v>54</v>
       </c>
       <c r="J103" t="s" s="2">
-        <v>486</v>
+        <v>119</v>
       </c>
       <c r="K103" t="s" s="2">
-        <v>461</v>
+        <v>296</v>
       </c>
       <c r="L103" t="s" s="2">
-        <v>487</v>
+        <v>297</v>
       </c>
       <c r="M103" t="s" s="2">
-        <v>463</v>
+        <v>298</v>
       </c>
       <c r="N103" s="2"/>
       <c r="O103" t="s" s="2">
@@ -13667,13 +13612,13 @@
         <v>44</v>
       </c>
       <c r="AE103" t="s" s="2">
-        <v>485</v>
+        <v>299</v>
       </c>
       <c r="AF103" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AG103" t="s" s="2">
-        <v>43</v>
+        <v>53</v>
       </c>
       <c r="AH103" t="s" s="2">
         <v>44</v>
@@ -13682,16 +13627,16 @@
         <v>44</v>
       </c>
       <c r="AJ103" t="s" s="2">
-        <v>488</v>
+        <v>44</v>
       </c>
       <c r="AK103" t="s" s="2">
-        <v>467</v>
+        <v>300</v>
       </c>
       <c r="AL103" t="s" s="2">
-        <v>489</v>
+        <v>301</v>
       </c>
       <c r="AM103" t="s" s="2">
-        <v>469</v>
+        <v>44</v>
       </c>
       <c r="AN103" t="s" s="2">
         <v>44</v>
@@ -13699,18 +13644,18 @@
     </row>
     <row r="104" hidden="true">
       <c r="A104" t="s" s="2">
-        <v>490</v>
+        <v>507</v>
       </c>
       <c r="B104" s="2"/>
       <c r="C104" t="s" s="2">
-        <v>491</v>
+        <v>44</v>
       </c>
       <c r="D104" s="2"/>
       <c r="E104" t="s" s="2">
-        <v>42</v>
+        <v>53</v>
       </c>
       <c r="F104" t="s" s="2">
-        <v>43</v>
+        <v>53</v>
       </c>
       <c r="G104" t="s" s="2">
         <v>44</v>
@@ -13719,19 +13664,21 @@
         <v>44</v>
       </c>
       <c r="I104" t="s" s="2">
-        <v>44</v>
+        <v>54</v>
       </c>
       <c r="J104" t="s" s="2">
-        <v>492</v>
+        <v>72</v>
       </c>
       <c r="K104" t="s" s="2">
-        <v>493</v>
+        <v>303</v>
       </c>
       <c r="L104" t="s" s="2">
-        <v>494</v>
+        <v>304</v>
       </c>
       <c r="M104" s="2"/>
-      <c r="N104" s="2"/>
+      <c r="N104" t="s" s="2">
+        <v>305</v>
+      </c>
       <c r="O104" t="s" s="2">
         <v>44</v>
       </c>
@@ -13779,13 +13726,13 @@
         <v>44</v>
       </c>
       <c r="AE104" t="s" s="2">
-        <v>490</v>
+        <v>306</v>
       </c>
       <c r="AF104" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AG104" t="s" s="2">
-        <v>43</v>
+        <v>53</v>
       </c>
       <c r="AH104" t="s" s="2">
         <v>44</v>
@@ -13794,13 +13741,13 @@
         <v>44</v>
       </c>
       <c r="AJ104" t="s" s="2">
-        <v>495</v>
+        <v>44</v>
       </c>
       <c r="AK104" t="s" s="2">
-        <v>496</v>
+        <v>307</v>
       </c>
       <c r="AL104" t="s" s="2">
-        <v>497</v>
+        <v>308</v>
       </c>
       <c r="AM104" t="s" s="2">
         <v>44</v>
@@ -13811,7 +13758,7 @@
     </row>
     <row r="105" hidden="true">
       <c r="A105" t="s" s="2">
-        <v>498</v>
+        <v>508</v>
       </c>
       <c r="B105" s="2"/>
       <c r="C105" t="s" s="2">
@@ -13819,10 +13766,10 @@
       </c>
       <c r="D105" s="2"/>
       <c r="E105" t="s" s="2">
-        <v>42</v>
+        <v>53</v>
       </c>
       <c r="F105" t="s" s="2">
-        <v>43</v>
+        <v>53</v>
       </c>
       <c r="G105" t="s" s="2">
         <v>44</v>
@@ -13834,18 +13781,18 @@
         <v>54</v>
       </c>
       <c r="J105" t="s" s="2">
-        <v>499</v>
+        <v>119</v>
       </c>
       <c r="K105" t="s" s="2">
-        <v>500</v>
+        <v>310</v>
       </c>
       <c r="L105" t="s" s="2">
-        <v>501</v>
-      </c>
-      <c r="M105" t="s" s="2">
-        <v>502</v>
-      </c>
-      <c r="N105" s="2"/>
+        <v>311</v>
+      </c>
+      <c r="M105" s="2"/>
+      <c r="N105" t="s" s="2">
+        <v>312</v>
+      </c>
       <c r="O105" t="s" s="2">
         <v>44</v>
       </c>
@@ -13893,13 +13840,13 @@
         <v>44</v>
       </c>
       <c r="AE105" t="s" s="2">
-        <v>498</v>
+        <v>313</v>
       </c>
       <c r="AF105" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AG105" t="s" s="2">
-        <v>43</v>
+        <v>53</v>
       </c>
       <c r="AH105" t="s" s="2">
         <v>44</v>
@@ -13911,10 +13858,10 @@
         <v>44</v>
       </c>
       <c r="AK105" t="s" s="2">
-        <v>503</v>
+        <v>314</v>
       </c>
       <c r="AL105" t="s" s="2">
-        <v>504</v>
+        <v>315</v>
       </c>
       <c r="AM105" t="s" s="2">
         <v>44</v>
@@ -13925,18 +13872,18 @@
     </row>
     <row r="106" hidden="true">
       <c r="A106" t="s" s="2">
-        <v>505</v>
+        <v>509</v>
       </c>
       <c r="B106" s="2"/>
       <c r="C106" t="s" s="2">
-        <v>506</v>
+        <v>44</v>
       </c>
       <c r="D106" s="2"/>
       <c r="E106" t="s" s="2">
         <v>42</v>
       </c>
       <c r="F106" t="s" s="2">
-        <v>43</v>
+        <v>53</v>
       </c>
       <c r="G106" t="s" s="2">
         <v>44</v>
@@ -13948,19 +13895,19 @@
         <v>54</v>
       </c>
       <c r="J106" t="s" s="2">
-        <v>141</v>
+        <v>249</v>
       </c>
       <c r="K106" t="s" s="2">
-        <v>507</v>
+        <v>317</v>
       </c>
       <c r="L106" t="s" s="2">
-        <v>508</v>
+        <v>318</v>
       </c>
       <c r="M106" t="s" s="2">
-        <v>509</v>
+        <v>319</v>
       </c>
       <c r="N106" t="s" s="2">
-        <v>510</v>
+        <v>320</v>
       </c>
       <c r="O106" t="s" s="2">
         <v>44</v>
@@ -13985,13 +13932,13 @@
         <v>44</v>
       </c>
       <c r="W106" t="s" s="2">
-        <v>261</v>
+        <v>44</v>
       </c>
       <c r="X106" t="s" s="2">
-        <v>511</v>
+        <v>44</v>
       </c>
       <c r="Y106" t="s" s="2">
-        <v>512</v>
+        <v>44</v>
       </c>
       <c r="Z106" t="s" s="2">
         <v>44</v>
@@ -14009,13 +13956,13 @@
         <v>44</v>
       </c>
       <c r="AE106" t="s" s="2">
-        <v>505</v>
+        <v>321</v>
       </c>
       <c r="AF106" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AG106" t="s" s="2">
-        <v>43</v>
+        <v>53</v>
       </c>
       <c r="AH106" t="s" s="2">
         <v>44</v>
@@ -14027,21 +13974,21 @@
         <v>44</v>
       </c>
       <c r="AK106" t="s" s="2">
-        <v>503</v>
+        <v>322</v>
       </c>
       <c r="AL106" t="s" s="2">
-        <v>513</v>
+        <v>323</v>
       </c>
       <c r="AM106" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AN106" t="s" s="2">
-        <v>514</v>
+        <v>44</v>
       </c>
     </row>
     <row r="107" hidden="true">
       <c r="A107" t="s" s="2">
-        <v>515</v>
+        <v>510</v>
       </c>
       <c r="B107" s="2"/>
       <c r="C107" t="s" s="2">
@@ -14061,19 +14008,23 @@
         <v>44</v>
       </c>
       <c r="I107" t="s" s="2">
-        <v>44</v>
+        <v>54</v>
       </c>
       <c r="J107" t="s" s="2">
         <v>119</v>
       </c>
       <c r="K107" t="s" s="2">
-        <v>120</v>
+        <v>325</v>
       </c>
       <c r="L107" t="s" s="2">
-        <v>121</v>
-      </c>
-      <c r="M107" s="2"/>
-      <c r="N107" s="2"/>
+        <v>326</v>
+      </c>
+      <c r="M107" t="s" s="2">
+        <v>327</v>
+      </c>
+      <c r="N107" t="s" s="2">
+        <v>328</v>
+      </c>
       <c r="O107" t="s" s="2">
         <v>44</v>
       </c>
@@ -14121,7 +14072,7 @@
         <v>44</v>
       </c>
       <c r="AE107" t="s" s="2">
-        <v>122</v>
+        <v>329</v>
       </c>
       <c r="AF107" t="s" s="2">
         <v>42</v>
@@ -14139,10 +14090,10 @@
         <v>44</v>
       </c>
       <c r="AK107" t="s" s="2">
-        <v>44</v>
+        <v>330</v>
       </c>
       <c r="AL107" t="s" s="2">
-        <v>123</v>
+        <v>331</v>
       </c>
       <c r="AM107" t="s" s="2">
         <v>44</v>
@@ -14153,11 +14104,11 @@
     </row>
     <row r="108" hidden="true">
       <c r="A108" t="s" s="2">
-        <v>516</v>
+        <v>511</v>
       </c>
       <c r="B108" s="2"/>
       <c r="C108" t="s" s="2">
-        <v>98</v>
+        <v>44</v>
       </c>
       <c r="D108" s="2"/>
       <c r="E108" t="s" s="2">
@@ -14176,17 +14127,15 @@
         <v>44</v>
       </c>
       <c r="J108" t="s" s="2">
-        <v>99</v>
+        <v>512</v>
       </c>
       <c r="K108" t="s" s="2">
-        <v>100</v>
+        <v>12</v>
       </c>
       <c r="L108" t="s" s="2">
-        <v>125</v>
-      </c>
-      <c r="M108" t="s" s="2">
-        <v>102</v>
-      </c>
+        <v>513</v>
+      </c>
+      <c r="M108" s="2"/>
       <c r="N108" s="2"/>
       <c r="O108" t="s" s="2">
         <v>44</v>
@@ -14223,19 +14172,19 @@
         <v>44</v>
       </c>
       <c r="AA108" t="s" s="2">
-        <v>126</v>
+        <v>44</v>
       </c>
       <c r="AB108" t="s" s="2">
-        <v>127</v>
+        <v>44</v>
       </c>
       <c r="AC108" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AD108" t="s" s="2">
-        <v>128</v>
+        <v>44</v>
       </c>
       <c r="AE108" t="s" s="2">
-        <v>129</v>
+        <v>511</v>
       </c>
       <c r="AF108" t="s" s="2">
         <v>42</v>
@@ -14250,24 +14199,24 @@
         <v>44</v>
       </c>
       <c r="AJ108" t="s" s="2">
-        <v>44</v>
+        <v>514</v>
       </c>
       <c r="AK108" t="s" s="2">
-        <v>44</v>
+        <v>515</v>
       </c>
       <c r="AL108" t="s" s="2">
-        <v>123</v>
+        <v>516</v>
       </c>
       <c r="AM108" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AN108" t="s" s="2">
-        <v>44</v>
+        <v>517</v>
       </c>
     </row>
     <row r="109" hidden="true">
       <c r="A109" t="s" s="2">
-        <v>517</v>
+        <v>518</v>
       </c>
       <c r="B109" s="2"/>
       <c r="C109" t="s" s="2">
@@ -14278,7 +14227,7 @@
         <v>42</v>
       </c>
       <c r="F109" t="s" s="2">
-        <v>43</v>
+        <v>53</v>
       </c>
       <c r="G109" t="s" s="2">
         <v>44</v>
@@ -14287,23 +14236,19 @@
         <v>44</v>
       </c>
       <c r="I109" t="s" s="2">
-        <v>54</v>
+        <v>44</v>
       </c>
       <c r="J109" t="s" s="2">
-        <v>268</v>
+        <v>119</v>
       </c>
       <c r="K109" t="s" s="2">
-        <v>269</v>
+        <v>120</v>
       </c>
       <c r="L109" t="s" s="2">
-        <v>270</v>
-      </c>
-      <c r="M109" t="s" s="2">
-        <v>271</v>
-      </c>
-      <c r="N109" t="s" s="2">
-        <v>272</v>
-      </c>
+        <v>121</v>
+      </c>
+      <c r="M109" s="2"/>
+      <c r="N109" s="2"/>
       <c r="O109" t="s" s="2">
         <v>44</v>
       </c>
@@ -14339,23 +14284,25 @@
         <v>44</v>
       </c>
       <c r="AA109" t="s" s="2">
-        <v>273</v>
-      </c>
-      <c r="AB109" s="2"/>
+        <v>44</v>
+      </c>
+      <c r="AB109" t="s" s="2">
+        <v>44</v>
+      </c>
       <c r="AC109" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AD109" t="s" s="2">
-        <v>128</v>
+        <v>44</v>
       </c>
       <c r="AE109" t="s" s="2">
-        <v>274</v>
+        <v>122</v>
       </c>
       <c r="AF109" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AG109" t="s" s="2">
-        <v>43</v>
+        <v>53</v>
       </c>
       <c r="AH109" t="s" s="2">
         <v>44</v>
@@ -14367,10 +14314,10 @@
         <v>44</v>
       </c>
       <c r="AK109" t="s" s="2">
-        <v>275</v>
+        <v>44</v>
       </c>
       <c r="AL109" t="s" s="2">
-        <v>276</v>
+        <v>123</v>
       </c>
       <c r="AM109" t="s" s="2">
         <v>44</v>
@@ -14381,13 +14328,11 @@
     </row>
     <row r="110" hidden="true">
       <c r="A110" t="s" s="2">
-        <v>517</v>
-      </c>
-      <c r="B110" t="s" s="2">
-        <v>277</v>
-      </c>
+        <v>519</v>
+      </c>
+      <c r="B110" s="2"/>
       <c r="C110" t="s" s="2">
-        <v>44</v>
+        <v>98</v>
       </c>
       <c r="D110" s="2"/>
       <c r="E110" t="s" s="2">
@@ -14403,23 +14348,21 @@
         <v>44</v>
       </c>
       <c r="I110" t="s" s="2">
-        <v>54</v>
+        <v>44</v>
       </c>
       <c r="J110" t="s" s="2">
-        <v>268</v>
+        <v>99</v>
       </c>
       <c r="K110" t="s" s="2">
-        <v>269</v>
+        <v>100</v>
       </c>
       <c r="L110" t="s" s="2">
-        <v>270</v>
+        <v>125</v>
       </c>
       <c r="M110" t="s" s="2">
-        <v>271</v>
-      </c>
-      <c r="N110" t="s" s="2">
-        <v>272</v>
-      </c>
+        <v>102</v>
+      </c>
+      <c r="N110" s="2"/>
       <c r="O110" t="s" s="2">
         <v>44</v>
       </c>
@@ -14443,31 +14386,31 @@
         <v>44</v>
       </c>
       <c r="W110" t="s" s="2">
-        <v>518</v>
+        <v>44</v>
       </c>
       <c r="X110" t="s" s="2">
-        <v>519</v>
+        <v>44</v>
       </c>
       <c r="Y110" t="s" s="2">
-        <v>520</v>
+        <v>44</v>
       </c>
       <c r="Z110" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AA110" t="s" s="2">
-        <v>44</v>
+        <v>126</v>
       </c>
       <c r="AB110" t="s" s="2">
-        <v>44</v>
+        <v>127</v>
       </c>
       <c r="AC110" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AD110" t="s" s="2">
-        <v>44</v>
+        <v>128</v>
       </c>
       <c r="AE110" t="s" s="2">
-        <v>274</v>
+        <v>129</v>
       </c>
       <c r="AF110" t="s" s="2">
         <v>42</v>
@@ -14485,10 +14428,10 @@
         <v>44</v>
       </c>
       <c r="AK110" t="s" s="2">
-        <v>275</v>
+        <v>44</v>
       </c>
       <c r="AL110" t="s" s="2">
-        <v>276</v>
+        <v>123</v>
       </c>
       <c r="AM110" t="s" s="2">
         <v>44</v>
@@ -14499,7 +14442,7 @@
     </row>
     <row r="111" hidden="true">
       <c r="A111" t="s" s="2">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="B111" s="2"/>
       <c r="C111" t="s" s="2">
@@ -14519,16 +14462,16 @@
         <v>44</v>
       </c>
       <c r="I111" t="s" s="2">
-        <v>44</v>
+        <v>54</v>
       </c>
       <c r="J111" t="s" s="2">
-        <v>119</v>
+        <v>521</v>
       </c>
       <c r="K111" t="s" s="2">
-        <v>120</v>
+        <v>522</v>
       </c>
       <c r="L111" t="s" s="2">
-        <v>121</v>
+        <v>523</v>
       </c>
       <c r="M111" s="2"/>
       <c r="N111" s="2"/>
@@ -14579,7 +14522,7 @@
         <v>44</v>
       </c>
       <c r="AE111" t="s" s="2">
-        <v>122</v>
+        <v>524</v>
       </c>
       <c r="AF111" t="s" s="2">
         <v>42</v>
@@ -14597,10 +14540,10 @@
         <v>44</v>
       </c>
       <c r="AK111" t="s" s="2">
-        <v>44</v>
+        <v>96</v>
       </c>
       <c r="AL111" t="s" s="2">
-        <v>123</v>
+        <v>525</v>
       </c>
       <c r="AM111" t="s" s="2">
         <v>44</v>
@@ -14611,7 +14554,7 @@
     </row>
     <row r="112" hidden="true">
       <c r="A112" t="s" s="2">
-        <v>522</v>
+        <v>526</v>
       </c>
       <c r="B112" s="2"/>
       <c r="C112" t="s" s="2">
@@ -14622,7 +14565,7 @@
         <v>42</v>
       </c>
       <c r="F112" t="s" s="2">
-        <v>43</v>
+        <v>53</v>
       </c>
       <c r="G112" t="s" s="2">
         <v>44</v>
@@ -14631,16 +14574,16 @@
         <v>44</v>
       </c>
       <c r="I112" t="s" s="2">
-        <v>44</v>
+        <v>54</v>
       </c>
       <c r="J112" t="s" s="2">
-        <v>99</v>
+        <v>391</v>
       </c>
       <c r="K112" t="s" s="2">
-        <v>280</v>
+        <v>527</v>
       </c>
       <c r="L112" t="s" s="2">
-        <v>281</v>
+        <v>528</v>
       </c>
       <c r="M112" s="2"/>
       <c r="N112" s="2"/>
@@ -14679,25 +14622,25 @@
         <v>44</v>
       </c>
       <c r="AA112" t="s" s="2">
-        <v>126</v>
+        <v>44</v>
       </c>
       <c r="AB112" t="s" s="2">
-        <v>127</v>
+        <v>44</v>
       </c>
       <c r="AC112" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AD112" t="s" s="2">
-        <v>128</v>
+        <v>44</v>
       </c>
       <c r="AE112" t="s" s="2">
-        <v>129</v>
+        <v>529</v>
       </c>
       <c r="AF112" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AG112" t="s" s="2">
-        <v>43</v>
+        <v>53</v>
       </c>
       <c r="AH112" t="s" s="2">
         <v>44</v>
@@ -14709,10 +14652,10 @@
         <v>44</v>
       </c>
       <c r="AK112" t="s" s="2">
-        <v>44</v>
+        <v>96</v>
       </c>
       <c r="AL112" t="s" s="2">
-        <v>44</v>
+        <v>530</v>
       </c>
       <c r="AM112" t="s" s="2">
         <v>44</v>
@@ -14723,20 +14666,18 @@
     </row>
     <row r="113" hidden="true">
       <c r="A113" t="s" s="2">
-        <v>522</v>
-      </c>
-      <c r="B113" t="s" s="2">
-        <v>282</v>
-      </c>
+        <v>531</v>
+      </c>
+      <c r="B113" s="2"/>
       <c r="C113" t="s" s="2">
         <v>44</v>
       </c>
       <c r="D113" s="2"/>
       <c r="E113" t="s" s="2">
-        <v>42</v>
+        <v>53</v>
       </c>
       <c r="F113" t="s" s="2">
-        <v>43</v>
+        <v>53</v>
       </c>
       <c r="G113" t="s" s="2">
         <v>44</v>
@@ -14748,13 +14689,13 @@
         <v>44</v>
       </c>
       <c r="J113" t="s" s="2">
-        <v>283</v>
+        <v>119</v>
       </c>
       <c r="K113" t="s" s="2">
-        <v>280</v>
+        <v>532</v>
       </c>
       <c r="L113" t="s" s="2">
-        <v>281</v>
+        <v>533</v>
       </c>
       <c r="M113" s="2"/>
       <c r="N113" s="2"/>
@@ -14805,13 +14746,13 @@
         <v>44</v>
       </c>
       <c r="AE113" t="s" s="2">
-        <v>129</v>
+        <v>534</v>
       </c>
       <c r="AF113" t="s" s="2">
-        <v>42</v>
+        <v>53</v>
       </c>
       <c r="AG113" t="s" s="2">
-        <v>43</v>
+        <v>53</v>
       </c>
       <c r="AH113" t="s" s="2">
         <v>44</v>
@@ -14823,10 +14764,10 @@
         <v>44</v>
       </c>
       <c r="AK113" t="s" s="2">
-        <v>44</v>
+        <v>96</v>
       </c>
       <c r="AL113" t="s" s="2">
-        <v>44</v>
+        <v>535</v>
       </c>
       <c r="AM113" t="s" s="2">
         <v>44</v>
@@ -14837,7 +14778,7 @@
     </row>
     <row r="114" hidden="true">
       <c r="A114" t="s" s="2">
-        <v>523</v>
+        <v>536</v>
       </c>
       <c r="B114" s="2"/>
       <c r="C114" t="s" s="2">
@@ -14848,7 +14789,7 @@
         <v>42</v>
       </c>
       <c r="F114" t="s" s="2">
-        <v>53</v>
+        <v>43</v>
       </c>
       <c r="G114" t="s" s="2">
         <v>44</v>
@@ -14860,15 +14801,17 @@
         <v>44</v>
       </c>
       <c r="J114" t="s" s="2">
-        <v>119</v>
+        <v>537</v>
       </c>
       <c r="K114" t="s" s="2">
-        <v>120</v>
+        <v>538</v>
       </c>
       <c r="L114" t="s" s="2">
-        <v>121</v>
-      </c>
-      <c r="M114" s="2"/>
+        <v>539</v>
+      </c>
+      <c r="M114" t="s" s="2">
+        <v>540</v>
+      </c>
       <c r="N114" s="2"/>
       <c r="O114" t="s" s="2">
         <v>44</v>
@@ -14917,13 +14860,13 @@
         <v>44</v>
       </c>
       <c r="AE114" t="s" s="2">
-        <v>122</v>
+        <v>536</v>
       </c>
       <c r="AF114" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AG114" t="s" s="2">
-        <v>53</v>
+        <v>43</v>
       </c>
       <c r="AH114" t="s" s="2">
         <v>44</v>
@@ -14932,1841 +14875,23 @@
         <v>44</v>
       </c>
       <c r="AJ114" t="s" s="2">
-        <v>44</v>
+        <v>541</v>
       </c>
       <c r="AK114" t="s" s="2">
-        <v>44</v>
+        <v>96</v>
       </c>
       <c r="AL114" t="s" s="2">
-        <v>123</v>
+        <v>542</v>
       </c>
       <c r="AM114" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AN114" t="s" s="2">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="115" hidden="true">
-      <c r="A115" t="s" s="2">
-        <v>524</v>
-      </c>
-      <c r="B115" s="2"/>
-      <c r="C115" t="s" s="2">
-        <v>98</v>
-      </c>
-      <c r="D115" s="2"/>
-      <c r="E115" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="F115" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="G115" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="H115" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="I115" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="J115" t="s" s="2">
-        <v>99</v>
-      </c>
-      <c r="K115" t="s" s="2">
-        <v>100</v>
-      </c>
-      <c r="L115" t="s" s="2">
-        <v>125</v>
-      </c>
-      <c r="M115" t="s" s="2">
-        <v>102</v>
-      </c>
-      <c r="N115" s="2"/>
-      <c r="O115" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="P115" s="2"/>
-      <c r="Q115" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="R115" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="S115" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="T115" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="U115" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="V115" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="W115" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="X115" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="Y115" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="Z115" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AA115" t="s" s="2">
-        <v>126</v>
-      </c>
-      <c r="AB115" t="s" s="2">
-        <v>127</v>
-      </c>
-      <c r="AC115" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AD115" t="s" s="2">
-        <v>128</v>
-      </c>
-      <c r="AE115" t="s" s="2">
-        <v>129</v>
-      </c>
-      <c r="AF115" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AG115" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AH115" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AI115" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AJ115" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AK115" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AL115" t="s" s="2">
-        <v>123</v>
-      </c>
-      <c r="AM115" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AN115" t="s" s="2">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="116" hidden="true">
-      <c r="A116" t="s" s="2">
-        <v>525</v>
-      </c>
-      <c r="B116" s="2"/>
-      <c r="C116" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="D116" s="2"/>
-      <c r="E116" t="s" s="2">
-        <v>53</v>
-      </c>
-      <c r="F116" t="s" s="2">
-        <v>53</v>
-      </c>
-      <c r="G116" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="H116" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="I116" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="J116" t="s" s="2">
-        <v>66</v>
-      </c>
-      <c r="K116" t="s" s="2">
-        <v>287</v>
-      </c>
-      <c r="L116" t="s" s="2">
-        <v>288</v>
-      </c>
-      <c r="M116" t="s" s="2">
-        <v>289</v>
-      </c>
-      <c r="N116" s="2"/>
-      <c r="O116" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="P116" s="2"/>
-      <c r="Q116" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="R116" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="S116" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="T116" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="U116" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="V116" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="W116" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="X116" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="Y116" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="Z116" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AA116" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AB116" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AC116" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AD116" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AE116" t="s" s="2">
-        <v>290</v>
-      </c>
-      <c r="AF116" t="s" s="2">
-        <v>53</v>
-      </c>
-      <c r="AG116" t="s" s="2">
-        <v>53</v>
-      </c>
-      <c r="AH116" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AI116" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AJ116" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AK116" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AL116" t="s" s="2">
-        <v>96</v>
-      </c>
-      <c r="AM116" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AN116" t="s" s="2">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="117" hidden="true">
-      <c r="A117" t="s" s="2">
-        <v>526</v>
-      </c>
-      <c r="B117" s="2"/>
-      <c r="C117" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="D117" s="2"/>
-      <c r="E117" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="F117" t="s" s="2">
-        <v>53</v>
-      </c>
-      <c r="G117" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="H117" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="I117" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="J117" t="s" s="2">
-        <v>292</v>
-      </c>
-      <c r="K117" t="s" s="2">
-        <v>293</v>
-      </c>
-      <c r="L117" t="s" s="2">
-        <v>294</v>
-      </c>
-      <c r="M117" s="2"/>
-      <c r="N117" s="2"/>
-      <c r="O117" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="P117" s="2"/>
-      <c r="Q117" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="R117" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="S117" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="T117" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="U117" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="V117" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="W117" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="X117" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="Y117" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="Z117" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AA117" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AB117" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AC117" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AD117" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AE117" t="s" s="2">
-        <v>295</v>
-      </c>
-      <c r="AF117" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AG117" t="s" s="2">
-        <v>53</v>
-      </c>
-      <c r="AH117" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AI117" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AJ117" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AK117" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AL117" t="s" s="2">
-        <v>96</v>
-      </c>
-      <c r="AM117" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AN117" t="s" s="2">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="118" hidden="true">
-      <c r="A118" t="s" s="2">
-        <v>527</v>
-      </c>
-      <c r="B118" s="2"/>
-      <c r="C118" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="D118" s="2"/>
-      <c r="E118" t="s" s="2">
-        <v>53</v>
-      </c>
-      <c r="F118" t="s" s="2">
-        <v>53</v>
-      </c>
-      <c r="G118" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="H118" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="I118" t="s" s="2">
-        <v>54</v>
-      </c>
-      <c r="J118" t="s" s="2">
-        <v>66</v>
-      </c>
-      <c r="K118" t="s" s="2">
-        <v>297</v>
-      </c>
-      <c r="L118" t="s" s="2">
-        <v>298</v>
-      </c>
-      <c r="M118" t="s" s="2">
-        <v>299</v>
-      </c>
-      <c r="N118" t="s" s="2">
-        <v>300</v>
-      </c>
-      <c r="O118" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="P118" s="2"/>
-      <c r="Q118" t="s" s="2">
-        <v>301</v>
-      </c>
-      <c r="R118" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="S118" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="T118" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="U118" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="V118" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="W118" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="X118" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="Y118" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="Z118" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AA118" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AB118" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AC118" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AD118" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AE118" t="s" s="2">
-        <v>302</v>
-      </c>
-      <c r="AF118" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AG118" t="s" s="2">
-        <v>53</v>
-      </c>
-      <c r="AH118" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AI118" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AJ118" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AK118" t="s" s="2">
-        <v>303</v>
-      </c>
-      <c r="AL118" t="s" s="2">
-        <v>304</v>
-      </c>
-      <c r="AM118" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AN118" t="s" s="2">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="119" hidden="true">
-      <c r="A119" t="s" s="2">
-        <v>528</v>
-      </c>
-      <c r="B119" s="2"/>
-      <c r="C119" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="D119" s="2"/>
-      <c r="E119" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="F119" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="G119" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="H119" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="I119" t="s" s="2">
-        <v>54</v>
-      </c>
-      <c r="J119" t="s" s="2">
-        <v>119</v>
-      </c>
-      <c r="K119" t="s" s="2">
-        <v>306</v>
-      </c>
-      <c r="L119" t="s" s="2">
-        <v>307</v>
-      </c>
-      <c r="M119" t="s" s="2">
-        <v>308</v>
-      </c>
-      <c r="N119" s="2"/>
-      <c r="O119" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="P119" s="2"/>
-      <c r="Q119" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="R119" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="S119" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="T119" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="U119" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="V119" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="W119" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="X119" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="Y119" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="Z119" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AA119" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AB119" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AC119" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AD119" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AE119" t="s" s="2">
-        <v>309</v>
-      </c>
-      <c r="AF119" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AG119" t="s" s="2">
-        <v>53</v>
-      </c>
-      <c r="AH119" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AI119" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AJ119" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AK119" t="s" s="2">
-        <v>310</v>
-      </c>
-      <c r="AL119" t="s" s="2">
-        <v>311</v>
-      </c>
-      <c r="AM119" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AN119" t="s" s="2">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="120" hidden="true">
-      <c r="A120" t="s" s="2">
-        <v>529</v>
-      </c>
-      <c r="B120" s="2"/>
-      <c r="C120" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="D120" s="2"/>
-      <c r="E120" t="s" s="2">
-        <v>53</v>
-      </c>
-      <c r="F120" t="s" s="2">
-        <v>53</v>
-      </c>
-      <c r="G120" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="H120" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="I120" t="s" s="2">
-        <v>54</v>
-      </c>
-      <c r="J120" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="K120" t="s" s="2">
-        <v>313</v>
-      </c>
-      <c r="L120" t="s" s="2">
-        <v>314</v>
-      </c>
-      <c r="M120" s="2"/>
-      <c r="N120" t="s" s="2">
-        <v>315</v>
-      </c>
-      <c r="O120" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="P120" s="2"/>
-      <c r="Q120" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="R120" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="S120" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="T120" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="U120" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="V120" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="W120" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="X120" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="Y120" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="Z120" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AA120" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AB120" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AC120" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AD120" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AE120" t="s" s="2">
-        <v>316</v>
-      </c>
-      <c r="AF120" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AG120" t="s" s="2">
-        <v>53</v>
-      </c>
-      <c r="AH120" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AI120" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AJ120" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AK120" t="s" s="2">
-        <v>317</v>
-      </c>
-      <c r="AL120" t="s" s="2">
-        <v>318</v>
-      </c>
-      <c r="AM120" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AN120" t="s" s="2">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="121" hidden="true">
-      <c r="A121" t="s" s="2">
-        <v>530</v>
-      </c>
-      <c r="B121" s="2"/>
-      <c r="C121" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="D121" s="2"/>
-      <c r="E121" t="s" s="2">
-        <v>53</v>
-      </c>
-      <c r="F121" t="s" s="2">
-        <v>53</v>
-      </c>
-      <c r="G121" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="H121" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="I121" t="s" s="2">
-        <v>54</v>
-      </c>
-      <c r="J121" t="s" s="2">
-        <v>119</v>
-      </c>
-      <c r="K121" t="s" s="2">
-        <v>320</v>
-      </c>
-      <c r="L121" t="s" s="2">
-        <v>321</v>
-      </c>
-      <c r="M121" s="2"/>
-      <c r="N121" t="s" s="2">
-        <v>322</v>
-      </c>
-      <c r="O121" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="P121" s="2"/>
-      <c r="Q121" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="R121" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="S121" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="T121" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="U121" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="V121" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="W121" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="X121" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="Y121" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="Z121" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AA121" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AB121" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AC121" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AD121" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AE121" t="s" s="2">
-        <v>323</v>
-      </c>
-      <c r="AF121" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AG121" t="s" s="2">
-        <v>53</v>
-      </c>
-      <c r="AH121" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AI121" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AJ121" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AK121" t="s" s="2">
-        <v>324</v>
-      </c>
-      <c r="AL121" t="s" s="2">
-        <v>325</v>
-      </c>
-      <c r="AM121" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AN121" t="s" s="2">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="122" hidden="true">
-      <c r="A122" t="s" s="2">
-        <v>531</v>
-      </c>
-      <c r="B122" s="2"/>
-      <c r="C122" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="D122" s="2"/>
-      <c r="E122" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="F122" t="s" s="2">
-        <v>53</v>
-      </c>
-      <c r="G122" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="H122" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="I122" t="s" s="2">
-        <v>54</v>
-      </c>
-      <c r="J122" t="s" s="2">
-        <v>249</v>
-      </c>
-      <c r="K122" t="s" s="2">
-        <v>327</v>
-      </c>
-      <c r="L122" t="s" s="2">
-        <v>328</v>
-      </c>
-      <c r="M122" t="s" s="2">
-        <v>329</v>
-      </c>
-      <c r="N122" t="s" s="2">
-        <v>330</v>
-      </c>
-      <c r="O122" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="P122" s="2"/>
-      <c r="Q122" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="R122" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="S122" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="T122" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="U122" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="V122" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="W122" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="X122" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="Y122" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="Z122" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AA122" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AB122" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AC122" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AD122" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AE122" t="s" s="2">
-        <v>331</v>
-      </c>
-      <c r="AF122" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AG122" t="s" s="2">
-        <v>53</v>
-      </c>
-      <c r="AH122" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AI122" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AJ122" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AK122" t="s" s="2">
-        <v>332</v>
-      </c>
-      <c r="AL122" t="s" s="2">
-        <v>333</v>
-      </c>
-      <c r="AM122" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AN122" t="s" s="2">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="123" hidden="true">
-      <c r="A123" t="s" s="2">
-        <v>532</v>
-      </c>
-      <c r="B123" s="2"/>
-      <c r="C123" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="D123" s="2"/>
-      <c r="E123" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="F123" t="s" s="2">
-        <v>53</v>
-      </c>
-      <c r="G123" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="H123" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="I123" t="s" s="2">
-        <v>54</v>
-      </c>
-      <c r="J123" t="s" s="2">
-        <v>119</v>
-      </c>
-      <c r="K123" t="s" s="2">
-        <v>335</v>
-      </c>
-      <c r="L123" t="s" s="2">
-        <v>336</v>
-      </c>
-      <c r="M123" t="s" s="2">
-        <v>337</v>
-      </c>
-      <c r="N123" t="s" s="2">
-        <v>338</v>
-      </c>
-      <c r="O123" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="P123" s="2"/>
-      <c r="Q123" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="R123" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="S123" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="T123" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="U123" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="V123" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="W123" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="X123" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="Y123" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="Z123" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AA123" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AB123" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AC123" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AD123" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AE123" t="s" s="2">
-        <v>339</v>
-      </c>
-      <c r="AF123" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AG123" t="s" s="2">
-        <v>53</v>
-      </c>
-      <c r="AH123" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AI123" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AJ123" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AK123" t="s" s="2">
-        <v>340</v>
-      </c>
-      <c r="AL123" t="s" s="2">
-        <v>341</v>
-      </c>
-      <c r="AM123" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AN123" t="s" s="2">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="124" hidden="true">
-      <c r="A124" t="s" s="2">
-        <v>533</v>
-      </c>
-      <c r="B124" s="2"/>
-      <c r="C124" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="D124" s="2"/>
-      <c r="E124" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="F124" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="G124" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="H124" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="I124" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="J124" t="s" s="2">
-        <v>534</v>
-      </c>
-      <c r="K124" t="s" s="2">
-        <v>12</v>
-      </c>
-      <c r="L124" t="s" s="2">
-        <v>535</v>
-      </c>
-      <c r="M124" s="2"/>
-      <c r="N124" s="2"/>
-      <c r="O124" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="P124" s="2"/>
-      <c r="Q124" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="R124" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="S124" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="T124" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="U124" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="V124" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="W124" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="X124" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="Y124" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="Z124" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AA124" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AB124" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AC124" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AD124" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AE124" t="s" s="2">
-        <v>533</v>
-      </c>
-      <c r="AF124" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AG124" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AH124" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AI124" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AJ124" t="s" s="2">
-        <v>536</v>
-      </c>
-      <c r="AK124" t="s" s="2">
-        <v>537</v>
-      </c>
-      <c r="AL124" t="s" s="2">
-        <v>538</v>
-      </c>
-      <c r="AM124" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AN124" t="s" s="2">
-        <v>539</v>
-      </c>
-    </row>
-    <row r="125" hidden="true">
-      <c r="A125" t="s" s="2">
-        <v>540</v>
-      </c>
-      <c r="B125" s="2"/>
-      <c r="C125" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="D125" s="2"/>
-      <c r="E125" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="F125" t="s" s="2">
-        <v>53</v>
-      </c>
-      <c r="G125" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="H125" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="I125" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="J125" t="s" s="2">
-        <v>119</v>
-      </c>
-      <c r="K125" t="s" s="2">
-        <v>120</v>
-      </c>
-      <c r="L125" t="s" s="2">
-        <v>121</v>
-      </c>
-      <c r="M125" s="2"/>
-      <c r="N125" s="2"/>
-      <c r="O125" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="P125" s="2"/>
-      <c r="Q125" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="R125" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="S125" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="T125" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="U125" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="V125" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="W125" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="X125" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="Y125" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="Z125" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AA125" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AB125" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AC125" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AD125" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AE125" t="s" s="2">
-        <v>122</v>
-      </c>
-      <c r="AF125" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AG125" t="s" s="2">
-        <v>53</v>
-      </c>
-      <c r="AH125" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AI125" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AJ125" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AK125" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AL125" t="s" s="2">
-        <v>123</v>
-      </c>
-      <c r="AM125" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AN125" t="s" s="2">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="126" hidden="true">
-      <c r="A126" t="s" s="2">
-        <v>541</v>
-      </c>
-      <c r="B126" s="2"/>
-      <c r="C126" t="s" s="2">
-        <v>98</v>
-      </c>
-      <c r="D126" s="2"/>
-      <c r="E126" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="F126" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="G126" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="H126" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="I126" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="J126" t="s" s="2">
-        <v>99</v>
-      </c>
-      <c r="K126" t="s" s="2">
-        <v>100</v>
-      </c>
-      <c r="L126" t="s" s="2">
-        <v>125</v>
-      </c>
-      <c r="M126" t="s" s="2">
-        <v>102</v>
-      </c>
-      <c r="N126" s="2"/>
-      <c r="O126" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="P126" s="2"/>
-      <c r="Q126" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="R126" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="S126" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="T126" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="U126" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="V126" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="W126" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="X126" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="Y126" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="Z126" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AA126" t="s" s="2">
-        <v>126</v>
-      </c>
-      <c r="AB126" t="s" s="2">
-        <v>127</v>
-      </c>
-      <c r="AC126" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AD126" t="s" s="2">
-        <v>128</v>
-      </c>
-      <c r="AE126" t="s" s="2">
-        <v>129</v>
-      </c>
-      <c r="AF126" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AG126" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AH126" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AI126" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AJ126" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AK126" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AL126" t="s" s="2">
-        <v>123</v>
-      </c>
-      <c r="AM126" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AN126" t="s" s="2">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="127" hidden="true">
-      <c r="A127" t="s" s="2">
-        <v>542</v>
-      </c>
-      <c r="B127" s="2"/>
-      <c r="C127" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="D127" s="2"/>
-      <c r="E127" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="F127" t="s" s="2">
-        <v>53</v>
-      </c>
-      <c r="G127" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="H127" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="I127" t="s" s="2">
-        <v>54</v>
-      </c>
-      <c r="J127" t="s" s="2">
-        <v>543</v>
-      </c>
-      <c r="K127" t="s" s="2">
-        <v>544</v>
-      </c>
-      <c r="L127" t="s" s="2">
-        <v>545</v>
-      </c>
-      <c r="M127" s="2"/>
-      <c r="N127" s="2"/>
-      <c r="O127" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="P127" s="2"/>
-      <c r="Q127" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="R127" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="S127" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="T127" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="U127" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="V127" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="W127" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="X127" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="Y127" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="Z127" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AA127" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AB127" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AC127" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AD127" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AE127" t="s" s="2">
-        <v>546</v>
-      </c>
-      <c r="AF127" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AG127" t="s" s="2">
-        <v>53</v>
-      </c>
-      <c r="AH127" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AI127" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AJ127" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AK127" t="s" s="2">
-        <v>96</v>
-      </c>
-      <c r="AL127" t="s" s="2">
-        <v>547</v>
-      </c>
-      <c r="AM127" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AN127" t="s" s="2">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="128" hidden="true">
-      <c r="A128" t="s" s="2">
-        <v>548</v>
-      </c>
-      <c r="B128" s="2"/>
-      <c r="C128" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="D128" s="2"/>
-      <c r="E128" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="F128" t="s" s="2">
-        <v>53</v>
-      </c>
-      <c r="G128" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="H128" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="I128" t="s" s="2">
-        <v>54</v>
-      </c>
-      <c r="J128" t="s" s="2">
-        <v>405</v>
-      </c>
-      <c r="K128" t="s" s="2">
-        <v>549</v>
-      </c>
-      <c r="L128" t="s" s="2">
-        <v>550</v>
-      </c>
-      <c r="M128" s="2"/>
-      <c r="N128" s="2"/>
-      <c r="O128" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="P128" s="2"/>
-      <c r="Q128" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="R128" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="S128" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="T128" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="U128" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="V128" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="W128" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="X128" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="Y128" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="Z128" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AA128" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AB128" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AC128" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AD128" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AE128" t="s" s="2">
-        <v>551</v>
-      </c>
-      <c r="AF128" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AG128" t="s" s="2">
-        <v>53</v>
-      </c>
-      <c r="AH128" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AI128" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AJ128" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AK128" t="s" s="2">
-        <v>96</v>
-      </c>
-      <c r="AL128" t="s" s="2">
-        <v>552</v>
-      </c>
-      <c r="AM128" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AN128" t="s" s="2">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="129" hidden="true">
-      <c r="A129" t="s" s="2">
-        <v>553</v>
-      </c>
-      <c r="B129" s="2"/>
-      <c r="C129" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="D129" s="2"/>
-      <c r="E129" t="s" s="2">
-        <v>53</v>
-      </c>
-      <c r="F129" t="s" s="2">
-        <v>53</v>
-      </c>
-      <c r="G129" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="H129" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="I129" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="J129" t="s" s="2">
-        <v>119</v>
-      </c>
-      <c r="K129" t="s" s="2">
-        <v>554</v>
-      </c>
-      <c r="L129" t="s" s="2">
-        <v>555</v>
-      </c>
-      <c r="M129" s="2"/>
-      <c r="N129" s="2"/>
-      <c r="O129" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="P129" s="2"/>
-      <c r="Q129" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="R129" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="S129" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="T129" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="U129" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="V129" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="W129" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="X129" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="Y129" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="Z129" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AA129" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AB129" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AC129" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AD129" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AE129" t="s" s="2">
-        <v>556</v>
-      </c>
-      <c r="AF129" t="s" s="2">
-        <v>53</v>
-      </c>
-      <c r="AG129" t="s" s="2">
-        <v>53</v>
-      </c>
-      <c r="AH129" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AI129" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AJ129" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AK129" t="s" s="2">
-        <v>96</v>
-      </c>
-      <c r="AL129" t="s" s="2">
-        <v>557</v>
-      </c>
-      <c r="AM129" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AN129" t="s" s="2">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="130" hidden="true">
-      <c r="A130" t="s" s="2">
-        <v>558</v>
-      </c>
-      <c r="B130" s="2"/>
-      <c r="C130" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="D130" s="2"/>
-      <c r="E130" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="F130" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="G130" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="H130" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="I130" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="J130" t="s" s="2">
-        <v>559</v>
-      </c>
-      <c r="K130" t="s" s="2">
-        <v>560</v>
-      </c>
-      <c r="L130" t="s" s="2">
-        <v>561</v>
-      </c>
-      <c r="M130" t="s" s="2">
-        <v>562</v>
-      </c>
-      <c r="N130" s="2"/>
-      <c r="O130" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="P130" s="2"/>
-      <c r="Q130" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="R130" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="S130" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="T130" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="U130" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="V130" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="W130" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="X130" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="Y130" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="Z130" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AA130" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AB130" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AC130" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AD130" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AE130" t="s" s="2">
-        <v>558</v>
-      </c>
-      <c r="AF130" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AG130" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AH130" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AI130" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AJ130" t="s" s="2">
-        <v>563</v>
-      </c>
-      <c r="AK130" t="s" s="2">
-        <v>96</v>
-      </c>
-      <c r="AL130" t="s" s="2">
-        <v>564</v>
-      </c>
-      <c r="AM130" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AN130" t="s" s="2">
         <v>44</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:AN130">
+  <autoFilter ref="A1:AN114">
     <filterColumn colId="6">
       <customFilters>
         <customFilter operator="notEqual" val=" "/>
@@ -16776,7 +14901,7 @@
       <filters blank="true"/>
     </filterColumn>
   </autoFilter>
-  <conditionalFormatting sqref="A2:AI129">
+  <conditionalFormatting sqref="A2:AI113">
     <cfRule type="expression" dxfId="0" priority="1">
       <formula>$G2&lt;&gt;"Y"</formula>
     </cfRule>
